--- a/季报汇总-2024-07-11.xlsx
+++ b/季报汇总-2024-07-11.xlsx
@@ -724,7 +724,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G243"/>
+  <dimension ref="B1:G248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2535,7 +2535,7 @@
     <row r="65" ht="14" customHeight="1">
       <c r="B65" s="34" t="inlineStr">
         <is>
-          <t>600052.SH</t>
+          <t>000796.SZ</t>
         </is>
       </c>
       <c r="C65" s="29">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="F65" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润9100万元左右;增长幅度为75.24%左右;上年同期业绩:净利润5192.74万元,基本每股收益0.06元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-3800万元至-2000万元;增长幅度为 67.77%至83.04%,基本每股收益-0.0240元至-0.0130元;上年同期业绩:净利润-11791.43万元,基本每股收益-0.1470元;</t>
         </is>
       </c>
       <c r="G65" s="33">
@@ -2563,7 +2563,7 @@
     <row r="66" ht="14" customHeight="1">
       <c r="B66" s="34" t="inlineStr">
         <is>
-          <t>002750.SZ</t>
+          <t>600052.SH</t>
         </is>
       </c>
       <c r="C66" s="29">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="F66" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-490万元至-360万元,基本每股收益-0.0122元至-0.0090元;上年同期业绩:净利润-1577.77万元,基本每股收益-0.0394元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润9100万元左右;增长幅度为75.24%左右;上年同期业绩:净利润5192.74万元,基本每股收益0.06元;</t>
         </is>
       </c>
       <c r="G66" s="33">
@@ -2591,7 +2591,7 @@
     <row r="67" ht="14" customHeight="1">
       <c r="B67" s="34" t="inlineStr">
         <is>
-          <t>002340.SZ</t>
+          <t>002750.SZ</t>
         </is>
       </c>
       <c r="C67" s="29">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="F67" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润66138.26万元至76472.36万元;增长幅度为60%至85%,基本每股收益0.13元至0.15元;上年同期业绩:净利润41336.41万元,基本每股收益0.08元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-490万元至-360万元,基本每股收益-0.0122元至-0.0090元;上年同期业绩:净利润-1577.77万元,基本每股收益-0.0394元;</t>
         </is>
       </c>
       <c r="G67" s="33">
@@ -2619,7 +2619,7 @@
     <row r="68" ht="14" customHeight="1">
       <c r="B68" s="34" t="inlineStr">
         <is>
-          <t>002005.SZ</t>
+          <t>002340.SZ</t>
         </is>
       </c>
       <c r="C68" s="29">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="F68" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-4200万元至-3200万元;增长幅度为68.51%至76%,基本每股收益-0.0240元至-0.0183元;上年同期业绩:净利润-13335.88万元,基本每股收益-0.0761元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润66138.26万元至76472.36万元;增长幅度为60%至85%,基本每股收益0.13元至0.15元;上年同期业绩:净利润41336.41万元,基本每股收益0.08元;</t>
         </is>
       </c>
       <c r="G68" s="33">
@@ -2647,7 +2647,7 @@
     <row r="69" ht="14" customHeight="1">
       <c r="B69" s="34" t="inlineStr">
         <is>
-          <t>003000.SZ</t>
+          <t>002005.SZ</t>
         </is>
       </c>
       <c r="C69" s="29">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="F69" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润13300.66万元至14963.24万元;增长幅度为60.00%至80.00%,基本每股收益0.29元至0.33元;上年同期业绩:净利润8312.91万元,基本每股收益0.19元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-4200万元至-3200万元;增长幅度为68.51%至76%,基本每股收益-0.0240元至-0.0183元;上年同期业绩:净利润-13335.88万元,基本每股收益-0.0761元;</t>
         </is>
       </c>
       <c r="G69" s="33">
@@ -2675,7 +2675,7 @@
     <row r="70" ht="14" customHeight="1">
       <c r="B70" s="34" t="inlineStr">
         <is>
-          <t>600721.SH</t>
+          <t>003000.SZ</t>
         </is>
       </c>
       <c r="C70" s="29">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="F70" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润1760万元至2640万元;增长幅度为35.38%至103.08%;上年同期业绩:净利润1299.96万元,基本每股收益0.0344元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润13300.66万元至14963.24万元;增长幅度为60.00%至80.00%,基本每股收益0.29元至0.33元;上年同期业绩:净利润8312.91万元,基本每股收益0.19元;</t>
         </is>
       </c>
       <c r="G70" s="33">
@@ -2703,7 +2703,7 @@
     <row r="71" ht="14" customHeight="1">
       <c r="B71" s="34" t="inlineStr">
         <is>
-          <t>605305.SH</t>
+          <t>600721.SH</t>
         </is>
       </c>
       <c r="C71" s="29">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="F71" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润13000.00万元至14500.00万元;增长幅度为58.99%至77.34%;上年同期业绩:净利润8176.41万元,基本每股收益0.54元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润1760万元至2640万元;增长幅度为35.38%至103.08%;上年同期业绩:净利润1299.96万元,基本每股收益0.0344元;</t>
         </is>
       </c>
       <c r="G71" s="33">
@@ -2731,7 +2731,7 @@
     <row r="72" ht="14" customHeight="1">
       <c r="B72" s="34" t="inlineStr">
         <is>
-          <t>603629.SH</t>
+          <t>605305.SH</t>
         </is>
       </c>
       <c r="C72" s="29">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="F72" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润4100万元至5000万元;增长幅度为50.79%至83.89%;上年同期业绩:净利润2719.05万元,基本每股收益0.11元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润13000.00万元至14500.00万元;增长幅度为58.99%至77.34%;上年同期业绩:净利润8176.41万元,基本每股收益0.54元;</t>
         </is>
       </c>
       <c r="G72" s="33">
@@ -2759,7 +2759,7 @@
     <row r="73" ht="14" customHeight="1">
       <c r="B73" s="34" t="inlineStr">
         <is>
-          <t>002213.SZ</t>
+          <t>603629.SH</t>
         </is>
       </c>
       <c r="C73" s="29">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="F73" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-1230万元至-960万元;增长幅度为62.19%至70.49%,基本每股收益-0.0521元至-0.0407元;上年同期业绩:净利润-3253.47万元,基本每股收益-0.1379元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润4100万元至5000万元;增长幅度为50.79%至83.89%;上年同期业绩:净利润2719.05万元,基本每股收益0.11元;</t>
         </is>
       </c>
       <c r="G73" s="33">
@@ -2787,7 +2787,7 @@
     <row r="74" ht="14" customHeight="1">
       <c r="B74" s="34" t="inlineStr">
         <is>
-          <t>002084.SZ</t>
+          <t>002213.SZ</t>
         </is>
       </c>
       <c r="C74" s="29">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="F74" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润960.00万元至1400.00万元;增长幅度为35.09%至97.01%,基本每股收益0.0147元至0.0215元;上年同期业绩:净利润710.63万元,基本每股收益0.0109元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-1230万元至-960万元;增长幅度为62.19%至70.49%,基本每股收益-0.0521元至-0.0407元;上年同期业绩:净利润-3253.47万元,基本每股收益-0.1379元;</t>
         </is>
       </c>
       <c r="G74" s="33">
@@ -2815,7 +2815,7 @@
     <row r="75" ht="14" customHeight="1">
       <c r="B75" s="34" t="inlineStr">
         <is>
-          <t>000050.SZ</t>
+          <t>002084.SZ</t>
         </is>
       </c>
       <c r="C75" s="29">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="F75" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-56000万元至-42000万元;增长幅度为60.68%至70.51%,基本每股收益-0.2279元至-0.1709元;上年同期业绩:净利润-142423.40万元,基本每股收益-0.5795元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润960.00万元至1400.00万元;增长幅度为35.09%至97.01%,基本每股收益0.0147元至0.0215元;上年同期业绩:净利润710.63万元,基本每股收益0.0109元;</t>
         </is>
       </c>
       <c r="G75" s="33">
@@ -2843,7 +2843,7 @@
     <row r="76" ht="14" customHeight="1">
       <c r="B76" s="34" t="inlineStr">
         <is>
-          <t>000807.SZ</t>
+          <t>000050.SZ</t>
         </is>
       </c>
       <c r="C76" s="29">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="F76" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润240000万元至260000万元;增长幅度为58.42%至71.62%,基本每股收益0.69元至0.75元;上年同期业绩:净利润151496.349027万元,基本每股收益0.44元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-56000万元至-42000万元;增长幅度为60.68%至70.51%,基本每股收益-0.2279元至-0.1709元;上年同期业绩:净利润-142423.40万元,基本每股收益-0.5795元;</t>
         </is>
       </c>
       <c r="G76" s="33">
@@ -2871,7 +2871,7 @@
     <row r="77" ht="14" customHeight="1">
       <c r="B77" s="34" t="inlineStr">
         <is>
-          <t>002350.SZ</t>
+          <t>000807.SZ</t>
         </is>
       </c>
       <c r="C77" s="29">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="F77" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-1400.00万元至-800.00万元,基本每股收益-0.0258元至-0.0148元;上年同期业绩:净利润-3043.18万元,基本每股收益-0.0575元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润240000万元至260000万元;增长幅度为58.42%至71.62%,基本每股收益0.69元至0.75元;上年同期业绩:净利润151496.349027万元,基本每股收益0.44元;</t>
         </is>
       </c>
       <c r="G77" s="33">
@@ -2899,7 +2899,7 @@
     <row r="78" ht="14" customHeight="1">
       <c r="B78" s="34" t="inlineStr">
         <is>
-          <t>002376.SZ</t>
+          <t>002350.SZ</t>
         </is>
       </c>
       <c r="C78" s="29">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="F78" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润1620.95万元至1837.07万元;增长幅度为50%至70%,基本每股收益0.02元至0.03元;上年同期业绩:净利润1080.63万元,基本每股收益0.02元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-1400.00万元至-800.00万元,基本每股收益-0.0258元至-0.0148元;上年同期业绩:净利润-3043.18万元,基本每股收益-0.0575元;</t>
         </is>
       </c>
       <c r="G78" s="33">
@@ -2927,7 +2927,7 @@
     <row r="79" ht="14" customHeight="1">
       <c r="B79" s="34" t="inlineStr">
         <is>
-          <t>600679.SH</t>
+          <t>002376.SZ</t>
         </is>
       </c>
       <c r="C79" s="29">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="F79" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润4000.00万元左右;增长幅度为58.40%左右;上年同期业绩:净利润2525.21万元,基本每股收益0.0490元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润1620.95万元至1837.07万元;增长幅度为50%至70%,基本每股收益0.02元至0.03元;上年同期业绩:净利润1080.63万元,基本每股收益0.02元;</t>
         </is>
       </c>
       <c r="G79" s="33">
@@ -2955,7 +2955,7 @@
     <row r="80" ht="14" customHeight="1">
       <c r="B80" s="34" t="inlineStr">
         <is>
-          <t>000025.SZ</t>
+          <t>600679.SH</t>
         </is>
       </c>
       <c r="C80" s="29">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="F80" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润6066万元至7850万元;增长幅度为37.43%至77.84%,基本每股收益0.1407元至0.1821元;上年同期业绩:净利润4414万元,基本每股收益0.1024元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润4000.00万元左右;增长幅度为58.40%左右;上年同期业绩:净利润2525.21万元,基本每股收益0.0490元;</t>
         </is>
       </c>
       <c r="G80" s="33">
@@ -2983,7 +2983,7 @@
     <row r="81" ht="14" customHeight="1">
       <c r="B81" s="34" t="inlineStr">
         <is>
-          <t>603335.SH</t>
+          <t>000025.SZ</t>
         </is>
       </c>
       <c r="C81" s="29">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="F81" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-2900万元至-2200万元;上年同期业绩:净利润-5980.35万元,基本每股收益-0.14元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润6066万元至7850万元;增长幅度为37.43%至77.84%,基本每股收益0.1407元至0.1821元;上年同期业绩:净利润4414万元,基本每股收益0.1024元;</t>
         </is>
       </c>
       <c r="G81" s="33">
@@ -3011,7 +3011,7 @@
     <row r="82" ht="14" customHeight="1">
       <c r="B82" s="34" t="inlineStr">
         <is>
-          <t>000700.SZ</t>
+          <t>603335.SH</t>
         </is>
       </c>
       <c r="C82" s="29">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="F82" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润33000万元至37000万元;增长幅度为47.73%至65.64%,基本每股收益0.3595元至0.4030元;上年同期业绩:净利润22337.31万元,基本每股收益0.2435元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-2900万元至-2200万元;上年同期业绩:净利润-5980.35万元,基本每股收益-0.14元;</t>
         </is>
       </c>
       <c r="G82" s="33">
@@ -3039,7 +3039,7 @@
     <row r="83" ht="14" customHeight="1">
       <c r="B83" s="34" t="inlineStr">
         <is>
-          <t>600610.SH</t>
+          <t>000700.SZ</t>
         </is>
       </c>
       <c r="C83" s="29">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="F83" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-1500万元左右;上年同期业绩:净利润-3136.95万元,基本每股收益-0.0293元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润33000万元至37000万元;增长幅度为47.73%至65.64%,基本每股收益0.3595元至0.4030元;上年同期业绩:净利润22337.31万元,基本每股收益0.2435元;</t>
         </is>
       </c>
       <c r="G83" s="33">
@@ -3067,7 +3067,7 @@
     <row r="84" ht="14" customHeight="1">
       <c r="B84" s="34" t="inlineStr">
         <is>
-          <t>002596.SZ</t>
+          <t>600610.SH</t>
         </is>
       </c>
       <c r="C84" s="29">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="F84" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-5200万元至-3700万元,基本每股收益-0.0453元至-0.0322元;上年同期业绩:净利润-9230.14万元,基本每股收益-0.0804元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-1500万元左右;上年同期业绩:净利润-3136.95万元,基本每股收益-0.0293元;</t>
         </is>
       </c>
       <c r="G84" s="33">
@@ -3095,7 +3095,7 @@
     <row r="85" ht="14" customHeight="1">
       <c r="B85" s="34" t="inlineStr">
         <is>
-          <t>603158.SH</t>
+          <t>002596.SZ</t>
         </is>
       </c>
       <c r="C85" s="29">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="F85" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润10900.00万元至12400.00万元;增长幅度为41.22%至60.66%;上年同期业绩:净利润7718.28万元,基本每股收益0.16元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-5200万元至-3700万元,基本每股收益-0.0453元至-0.0322元;上年同期业绩:净利润-9230.14万元,基本每股收益-0.0804元;</t>
         </is>
       </c>
       <c r="G85" s="33">
@@ -3123,7 +3123,7 @@
     <row r="86" ht="14" customHeight="1">
       <c r="B86" s="34" t="inlineStr">
         <is>
-          <t>002842.SZ</t>
+          <t>603158.SH</t>
         </is>
       </c>
       <c r="C86" s="29">
@@ -3140,7 +3140,7 @@
       </c>
       <c r="F86" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-1200万元至-600万元,基本每股收益-0.04元至-0.02元;上年同期业绩:净利润-1831.00万元,基本每股收益-0.07元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润10900.00万元至12400.00万元;增长幅度为41.22%至60.66%;上年同期业绩:净利润7718.28万元,基本每股收益0.16元;</t>
         </is>
       </c>
       <c r="G86" s="33">
@@ -3151,7 +3151,7 @@
     <row r="87" ht="14" customHeight="1">
       <c r="B87" s="34" t="inlineStr">
         <is>
-          <t>688383.SH</t>
+          <t>002842.SZ</t>
         </is>
       </c>
       <c r="C87" s="29">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="F87" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润6500.00万元至6800.00万元;增长幅度为47.40%至54.20%;上年同期业绩:净利润4409.86万元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-1200万元至-600万元,基本每股收益-0.04元至-0.02元;上年同期业绩:净利润-1831.00万元,基本每股收益-0.07元;</t>
         </is>
       </c>
       <c r="G87" s="33">
@@ -3179,7 +3179,7 @@
     <row r="88" ht="14" customHeight="1">
       <c r="B88" s="34" t="inlineStr">
         <is>
-          <t>001330.SZ</t>
+          <t>688383.SH</t>
         </is>
       </c>
       <c r="C88" s="29">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="F88" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-15300万元至-10800万元,基本每股收益-0.11元至-0.08元;上年同期业绩:净利润-26476.86万元,基本每股收益-0.19元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润6500.00万元至6800.00万元;增长幅度为47.40%至54.20%;上年同期业绩:净利润4409.86万元;</t>
         </is>
       </c>
       <c r="G88" s="33">
@@ -3207,7 +3207,7 @@
     <row r="89" ht="14" customHeight="1">
       <c r="B89" s="34" t="inlineStr">
         <is>
-          <t>603193.SH</t>
+          <t>001330.SZ</t>
         </is>
       </c>
       <c r="C89" s="29">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="F89" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润17500.00万元至18500.00万元;增长幅度为46.48%至54.85%;上年同期业绩:净利润11946.87万元,基本每股收益0.35元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-15300万元至-10800万元,基本每股收益-0.11元至-0.08元;上年同期业绩:净利润-26476.86万元,基本每股收益-0.19元;</t>
         </is>
       </c>
       <c r="G89" s="33">
@@ -3235,7 +3235,7 @@
     <row r="90" ht="14" customHeight="1">
       <c r="B90" s="34" t="inlineStr">
         <is>
-          <t>605499.SH</t>
+          <t>603193.SH</t>
         </is>
       </c>
       <c r="C90" s="29">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="F90" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润160000万元至173000万元;增长幅度为44.39%至56.12%;上年同期业绩:净利润110812万元,基本每股收益2.7702元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润17500.00万元至18500.00万元;增长幅度为46.48%至54.85%;上年同期业绩:净利润11946.87万元,基本每股收益0.35元;</t>
         </is>
       </c>
       <c r="G90" s="33">
@@ -3263,7 +3263,7 @@
     <row r="91" ht="14" customHeight="1">
       <c r="B91" s="34" t="inlineStr">
         <is>
-          <t>603337.SH</t>
+          <t>605499.SH</t>
         </is>
       </c>
       <c r="C91" s="29">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="F91" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润38000万元至43300万元;增长幅度为40.43%至60.02%;上年同期业绩:净利润27059.86万元,基本每股收益0.56元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润160000万元至173000万元;增长幅度为44.39%至56.12%;上年同期业绩:净利润110812万元,基本每股收益2.7702元;</t>
         </is>
       </c>
       <c r="G91" s="33">
@@ -3291,7 +3291,7 @@
     <row r="92" ht="14" customHeight="1">
       <c r="B92" s="34" t="inlineStr">
         <is>
-          <t>603699.SH</t>
+          <t>603337.SH</t>
         </is>
       </c>
       <c r="C92" s="29">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="F92" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润43742.79万元至57202.12万元;增长幅度为30%至70%;上年同期业绩:净利润33648.30万元,基本每股收益0.45元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润38000万元至43300万元;增长幅度为40.43%至60.02%;上年同期业绩:净利润27059.86万元,基本每股收益0.56元;</t>
         </is>
       </c>
       <c r="G92" s="33">
@@ -3319,7 +3319,7 @@
     <row r="93" ht="14" customHeight="1">
       <c r="B93" s="34" t="inlineStr">
         <is>
-          <t>002599.SZ</t>
+          <t>603699.SH</t>
         </is>
       </c>
       <c r="C93" s="29">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="F93" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-1900万元至-1300万元;增长幅度为39.13%至58.35%,基本每股收益-0.04元至-0.02元;上年同期业绩:净利润-3121.15万元,基本每股收益-0.06元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润43742.79万元至57202.12万元;增长幅度为30%至70%;上年同期业绩:净利润33648.30万元,基本每股收益0.45元;</t>
         </is>
       </c>
       <c r="G93" s="33">
@@ -3347,7 +3347,7 @@
     <row r="94" ht="14" customHeight="1">
       <c r="B94" s="34" t="inlineStr">
         <is>
-          <t>600808.SH</t>
+          <t>002599.SZ</t>
         </is>
       </c>
       <c r="C94" s="29">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="F94" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-114800.00万元左右;上年同期业绩:净利润-223500.00万元,基本每股收益-0.289元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-1900万元至-1300万元;增长幅度为39.13%至58.35%,基本每股收益-0.04元至-0.02元;上年同期业绩:净利润-3121.15万元,基本每股收益-0.06元;</t>
         </is>
       </c>
       <c r="G94" s="33">
@@ -3375,7 +3375,7 @@
     <row r="95" ht="14" customHeight="1">
       <c r="B95" s="34" t="inlineStr">
         <is>
-          <t>002284.SZ</t>
+          <t>600808.SH</t>
         </is>
       </c>
       <c r="C95" s="29">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="F95" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润9000万元至11000万元;增长幅度为32.66%至62.14%,基本每股收益0.12元至0.15元;上年同期业绩:净利润6784.42万元,基本每股收益0.09元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-114800.00万元左右;上年同期业绩:净利润-223500.00万元,基本每股收益-0.289元;</t>
         </is>
       </c>
       <c r="G95" s="33">
@@ -3403,7 +3403,7 @@
     <row r="96" ht="14" customHeight="1">
       <c r="B96" s="34" t="inlineStr">
         <is>
-          <t>600536.SH</t>
+          <t>002284.SZ</t>
         </is>
       </c>
       <c r="C96" s="29">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="F96" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-30000万元至-25000万元;上年同期业绩:净利润-51533.83万元,基本每股收益-0.74元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润9000万元至11000万元;增长幅度为32.66%至62.14%,基本每股收益0.12元至0.15元;上年同期业绩:净利润6784.42万元,基本每股收益0.09元;</t>
         </is>
       </c>
       <c r="G96" s="33">
@@ -3431,7 +3431,7 @@
     <row r="97" ht="14" customHeight="1">
       <c r="B97" s="34" t="inlineStr">
         <is>
-          <t>605162.SH</t>
+          <t>600536.SH</t>
         </is>
       </c>
       <c r="C97" s="29">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="F97" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润6078.43万元至6978.94万元;增长幅度为35%至55%;上年同期业绩:净利润4502.54万元,基本每股收益0.11元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-30000万元至-25000万元;上年同期业绩:净利润-51533.83万元,基本每股收益-0.74元;</t>
         </is>
       </c>
       <c r="G97" s="33">
@@ -3459,7 +3459,7 @@
     <row r="98" ht="14" customHeight="1">
       <c r="B98" s="34" t="inlineStr">
         <is>
-          <t>605090.SH</t>
+          <t>605162.SH</t>
         </is>
       </c>
       <c r="C98" s="29">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="F98" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润99738.86万元至106863.06万元;增长幅度为40.00%至50.00%;上年同期业绩:净利润71242.04万元,基本每股收益1.15元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润6078.43万元至6978.94万元;增长幅度为35%至55%;上年同期业绩:净利润4502.54万元,基本每股收益0.11元;</t>
         </is>
       </c>
       <c r="G98" s="33">
@@ -3487,7 +3487,7 @@
     <row r="99" ht="14" customHeight="1">
       <c r="B99" s="34" t="inlineStr">
         <is>
-          <t>600460.SH</t>
+          <t>605090.SH</t>
         </is>
       </c>
       <c r="C99" s="29">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="F99" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-3000万元至-2000万元;上年同期业绩:净利润-4121.89万元,基本每股收益-0.03元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润99738.86万元至106863.06万元;增长幅度为40.00%至50.00%;上年同期业绩:净利润71242.04万元,基本每股收益1.15元;</t>
         </is>
       </c>
       <c r="G99" s="33">
@@ -3515,7 +3515,7 @@
     <row r="100" ht="14" customHeight="1">
       <c r="B100" s="34" t="inlineStr">
         <is>
-          <t>000608.SZ</t>
+          <t>600460.SH</t>
         </is>
       </c>
       <c r="C100" s="29">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="F100" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-1600万元至-1100万元,基本每股收益-0.021元至-0.015元;上年同期业绩:净利润-2207万元,基本每股收益-0.03元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-3000万元至-2000万元;上年同期业绩:净利润-4121.89万元,基本每股收益-0.03元;</t>
         </is>
       </c>
       <c r="G100" s="33">
@@ -3543,7 +3543,7 @@
     <row r="101" ht="14" customHeight="1">
       <c r="B101" s="34" t="inlineStr">
         <is>
-          <t>600871.SH</t>
+          <t>000608.SZ</t>
         </is>
       </c>
       <c r="C101" s="29">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="F101" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润45200万元左右;增长幅度为38.7%左右;上年同期业绩:净利润32590.4万元,基本每股收益0.017元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-1600万元至-1100万元,基本每股收益-0.021元至-0.015元;上年同期业绩:净利润-2207万元,基本每股收益-0.03元;</t>
         </is>
       </c>
       <c r="G101" s="33">
@@ -3571,7 +3571,7 @@
     <row r="102" ht="14" customHeight="1">
       <c r="B102" s="34" t="inlineStr">
         <is>
-          <t>002995.SZ</t>
+          <t>600871.SH</t>
         </is>
       </c>
       <c r="C102" s="29">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="F102" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-2800万元至-1500万元;增长幅度为18.74%至56.47%,基本每股收益-0.1578元至-0.0845元;上年同期业绩:净利润-3445.91万元,基本每股收益-0.1942元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润45200万元左右;增长幅度为38.7%左右;上年同期业绩:净利润32590.4万元,基本每股收益0.017元;</t>
         </is>
       </c>
       <c r="G102" s="33">
@@ -3599,7 +3599,7 @@
     <row r="103" ht="14" customHeight="1">
       <c r="B103" s="34" t="inlineStr">
         <is>
-          <t>002461.SZ</t>
+          <t>002995.SZ</t>
         </is>
       </c>
       <c r="C103" s="29">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="F103" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润47594.87万元至53086.58万元;增长幅度为30%至45%,基本每股收益0.2150元至0.2398元;上年同期业绩:净利润36611.44万元,基本每股收益0.1654元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-2800万元至-1500万元;增长幅度为18.74%至56.47%,基本每股收益-0.1578元至-0.0845元;上年同期业绩:净利润-3445.91万元,基本每股收益-0.1942元;</t>
         </is>
       </c>
       <c r="G103" s="33">
@@ -3627,7 +3627,7 @@
     <row r="104" ht="14" customHeight="1">
       <c r="B104" s="34" t="inlineStr">
         <is>
-          <t>002205.SZ</t>
+          <t>002461.SZ</t>
         </is>
       </c>
       <c r="C104" s="29">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="F104" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-5500万元至-4000万元;增长幅度为27.61%至47.35%,基本每股收益-0.2959元至-0.2152元;上年同期业绩:净利润-7597.50万元,基本每股收益-0.4088元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润47594.87万元至53086.58万元;增长幅度为30%至45%,基本每股收益0.2150元至0.2398元;上年同期业绩:净利润36611.44万元,基本每股收益0.1654元;</t>
         </is>
       </c>
       <c r="G104" s="33">
@@ -3655,7 +3655,7 @@
     <row r="105" ht="14" customHeight="1">
       <c r="B105" s="34" t="inlineStr">
         <is>
-          <t>000506.SZ</t>
+          <t>002205.SZ</t>
         </is>
       </c>
       <c r="C105" s="29">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="F105" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-6200万元至-4700万元,基本每股收益-0.07元至-0.05元;上年同期业绩:净利润-8161.82万元,基本每股收益-0.0879元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-5500万元至-4000万元;增长幅度为27.61%至47.35%,基本每股收益-0.2959元至-0.2152元;上年同期业绩:净利润-7597.50万元,基本每股收益-0.4088元;</t>
         </is>
       </c>
       <c r="G105" s="33">
@@ -3683,7 +3683,7 @@
     <row r="106" ht="14" customHeight="1">
       <c r="B106" s="34" t="inlineStr">
         <is>
-          <t>002847.SZ</t>
+          <t>000506.SZ</t>
         </is>
       </c>
       <c r="C106" s="29">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="F106" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润31000万元至33000万元;增长幅度为26.18%至34.32%,基本每股收益1.16元至1.24元;上年同期业绩:净利润24567.34万元,基本每股收益0.92元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-6200万元至-4700万元,基本每股收益-0.07元至-0.05元;上年同期业绩:净利润-8161.82万元,基本每股收益-0.0879元;</t>
         </is>
       </c>
       <c r="G106" s="33">
@@ -3711,7 +3711,7 @@
     <row r="107" ht="14" customHeight="1">
       <c r="B107" s="34" t="inlineStr">
         <is>
-          <t>000820.SZ</t>
+          <t>002847.SZ</t>
         </is>
       </c>
       <c r="C107" s="29">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="F107" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-1300万元至-910万元,基本每股收益-0.0204元至-0.0143元;上年同期业绩:净利润-1525.36万元,基本每股收益-0.0239元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润31000万元至33000万元;增长幅度为26.18%至34.32%,基本每股收益1.16元至1.24元;上年同期业绩:净利润24567.34万元,基本每股收益0.92元;</t>
         </is>
       </c>
       <c r="G107" s="33">
@@ -3739,7 +3739,7 @@
     <row r="108" ht="14" customHeight="1">
       <c r="B108" s="34" t="inlineStr">
         <is>
-          <t>603113.SH</t>
+          <t>000820.SZ</t>
         </is>
       </c>
       <c r="C108" s="29">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="F108" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-5000万元至-4000万元;上年同期业绩:净利润-6100.96万元,基本每股收益-0.07元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-1300万元至-910万元,基本每股收益-0.0204元至-0.0143元;上年同期业绩:净利润-1525.36万元,基本每股收益-0.0239元;</t>
         </is>
       </c>
       <c r="G108" s="33">
@@ -3767,7 +3767,7 @@
     <row r="109" ht="14" customHeight="1">
       <c r="B109" s="34" t="inlineStr">
         <is>
-          <t>002992.SZ</t>
+          <t>603113.SH</t>
         </is>
       </c>
       <c r="C109" s="29">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="F109" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-5000.00万元至-4000.00万元;增长幅度为16.08%至32.86%,基本每股收益-0.28元至-0.22元;上年同期业绩:净利润-5958.11万元,基本每股收益-0.33元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-5000万元至-4000万元;上年同期业绩:净利润-6100.96万元,基本每股收益-0.07元;</t>
         </is>
       </c>
       <c r="G109" s="33">
@@ -3795,7 +3795,7 @@
     <row r="110" ht="14" customHeight="1">
       <c r="B110" s="34" t="inlineStr">
         <is>
-          <t>600543.SH</t>
+          <t>002992.SZ</t>
         </is>
       </c>
       <c r="C110" s="29">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="F110" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-1200万元至-800万元;上年同期业绩:净利润-1283.78万元,基本每股收益-0.04元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-5000.00万元至-4000.00万元;增长幅度为16.08%至32.86%,基本每股收益-0.28元至-0.22元;上年同期业绩:净利润-5958.11万元,基本每股收益-0.33元;</t>
         </is>
       </c>
       <c r="G110" s="33">
@@ -3823,7 +3823,7 @@
     <row r="111" ht="14" customHeight="1">
       <c r="B111" s="34" t="inlineStr">
         <is>
-          <t>000815.SZ</t>
+          <t>000413.SZ</t>
         </is>
       </c>
       <c r="C111" s="29">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="F111" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-400万元至-300万元;增长幅度为8.05%至31.03%,基本每股收益-0.006元至-0.004元;上年同期业绩:净利润-435万元,基本每股收益-0.006元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-27000万元至-18000万元,基本每股收益-0.05元至-0.03元;上年同期业绩:净利润-29740.81万元,基本每股收益-0.05元;</t>
         </is>
       </c>
       <c r="G111" s="33">
@@ -3851,7 +3851,7 @@
     <row r="112" ht="14" customHeight="1">
       <c r="B112" s="34" t="inlineStr">
         <is>
-          <t>002579.SZ</t>
+          <t>600543.SH</t>
         </is>
       </c>
       <c r="C112" s="29">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="F112" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-7800万元至-6800万元;增长幅度为12.54%至23.75%,基本每股收益-0.13元至-0.11元;上年同期业绩:净利润-8918.32万元,基本每股收益-0.15元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-1200万元至-800万元;上年同期业绩:净利润-1283.78万元,基本每股收益-0.04元;</t>
         </is>
       </c>
       <c r="G112" s="33">
@@ -3879,7 +3879,7 @@
     <row r="113" ht="14" customHeight="1">
       <c r="B113" s="34" t="inlineStr">
         <is>
-          <t>000791.SZ</t>
+          <t>000815.SZ</t>
         </is>
       </c>
       <c r="C113" s="29">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="F113" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润27500万元至29500万元;增长幅度为13.26%至21.49%,基本每股收益0.1718元至0.1843元;上年同期业绩:净利润24281.02万元,基本每股收益0.1517元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-400万元至-300万元;增长幅度为8.05%至31.03%,基本每股收益-0.006元至-0.004元;上年同期业绩:净利润-435万元,基本每股收益-0.006元;</t>
         </is>
       </c>
       <c r="G113" s="33">
@@ -3907,7 +3907,7 @@
     <row r="114" ht="14" customHeight="1">
       <c r="B114" s="34" t="inlineStr">
         <is>
-          <t>002528.SZ</t>
+          <t>002579.SZ</t>
         </is>
       </c>
       <c r="C114" s="29">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="F114" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-9000万元至-7600万元;增长幅度为9.82%至23.85%,基本每股收益-0.0751元至-0.0634元;上年同期业绩:净利润-9980.35万元,基本每股收益-0.0833元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-7800万元至-6800万元;增长幅度为12.54%至23.75%,基本每股收益-0.13元至-0.11元;上年同期业绩:净利润-8918.32万元,基本每股收益-0.15元;</t>
         </is>
       </c>
       <c r="G114" s="33">
@@ -3935,7 +3935,7 @@
     <row r="115" ht="14" customHeight="1">
       <c r="B115" s="34" t="inlineStr">
         <is>
-          <t>002501.SZ</t>
+          <t>000791.SZ</t>
         </is>
       </c>
       <c r="C115" s="29">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="F115" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-7900万元至-5800万元,基本每股收益为-0.02元左右;上年同期业绩:净利润-7979.66万元,基本每股收益-0.02元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润27500万元至29500万元;增长幅度为13.26%至21.49%,基本每股收益0.1718元至0.1843元;上年同期业绩:净利润24281.02万元,基本每股收益0.1517元;</t>
         </is>
       </c>
       <c r="G115" s="33">
@@ -3963,7 +3963,7 @@
     <row r="116" ht="14" customHeight="1">
       <c r="B116" s="34" t="inlineStr">
         <is>
-          <t>002227.SZ</t>
+          <t>002528.SZ</t>
         </is>
       </c>
       <c r="C116" s="29">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="F116" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-2100万元至-1500万元,基本每股收益-0.0847元至-0.0605元;上年同期业绩:净利润-2006.16万元,基本每股收益-0.0810元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-9000万元至-7600万元;增长幅度为9.82%至23.85%,基本每股收益-0.0751元至-0.0634元;上年同期业绩:净利润-9980.35万元,基本每股收益-0.0833元;</t>
         </is>
       </c>
       <c r="G116" s="33">
@@ -3991,7 +3991,7 @@
     <row r="117" ht="14" customHeight="1">
       <c r="B117" s="34" t="inlineStr">
         <is>
-          <t>002798.SZ</t>
+          <t>002501.SZ</t>
         </is>
       </c>
       <c r="C117" s="29">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="F117" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-6000万元至-5000万元,基本每股收益-0.1639元至-0.1366元;上年同期业绩:净利润-6055.48万元,基本每股收益-0.1635元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-7900万元至-5800万元,基本每股收益为-0.02元左右;上年同期业绩:净利润-7979.66万元,基本每股收益-0.02元;</t>
         </is>
       </c>
       <c r="G117" s="33">
@@ -4019,7 +4019,7 @@
     <row r="118" ht="14" customHeight="1">
       <c r="B118" s="34" t="inlineStr">
         <is>
-          <t>000720.SZ</t>
+          <t>002227.SZ</t>
         </is>
       </c>
       <c r="C118" s="29">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="F118" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-3700万元至-2900万元,基本每股收益-0.0294元至-0.0231元;上年同期业绩:净利润-3513.85万元,基本每股收益-0.0280元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-2100万元至-1500万元,基本每股收益-0.0847元至-0.0605元;上年同期业绩:净利润-2006.16万元,基本每股收益-0.0810元;</t>
         </is>
       </c>
       <c r="G118" s="33">
@@ -4047,7 +4047,7 @@
     <row r="119" ht="14" customHeight="1">
       <c r="B119" s="34" t="inlineStr">
         <is>
-          <t>003029.SZ</t>
+          <t>002798.SZ</t>
         </is>
       </c>
       <c r="C119" s="29">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="F119" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-3600万元至-2600万元,基本每股收益-0.19元至-0.13元;上年同期业绩:净利润-3215万元,基本每股收益-0.18元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-6000万元至-5000万元,基本每股收益-0.1639元至-0.1366元;上年同期业绩:净利润-6055.48万元,基本每股收益-0.1635元;</t>
         </is>
       </c>
       <c r="G119" s="33">
@@ -4075,7 +4075,7 @@
     <row r="120" ht="14" customHeight="1">
       <c r="B120" s="34" t="inlineStr">
         <is>
-          <t>002326.SZ</t>
+          <t>000720.SZ</t>
         </is>
       </c>
       <c r="C120" s="29">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="F120" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润3500万元至4500万元;增长幅度为-9.45%至16.42%,基本每股收益0.038元至0.049元;上年同期业绩:净利润3865.15万元,基本每股收益0.04元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-3700万元至-2900万元,基本每股收益-0.0294元至-0.0231元;上年同期业绩:净利润-3513.85万元,基本每股收益-0.0280元;</t>
         </is>
       </c>
       <c r="G120" s="33">
@@ -4103,7 +4103,7 @@
     <row r="121" ht="14" customHeight="1">
       <c r="B121" s="34" t="inlineStr">
         <is>
-          <t>002309.SZ</t>
+          <t>003029.SZ</t>
         </is>
       </c>
       <c r="C121" s="29">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="F121" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-27000万元至-20600万元,基本每股收益-0.31元至-0.24元;上年同期业绩:净利润-23896.20万元,基本每股收益-0.27元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-3600万元至-2600万元,基本每股收益-0.19元至-0.13元;上年同期业绩:净利润-3215万元,基本每股收益-0.18元;</t>
         </is>
       </c>
       <c r="G121" s="33">
@@ -4131,7 +4131,7 @@
     <row r="122" ht="14" customHeight="1">
       <c r="B122" s="34" t="inlineStr">
         <is>
-          <t>000809.SZ</t>
+          <t>002326.SZ</t>
         </is>
       </c>
       <c r="C122" s="29">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="F122" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-6500万元至-5000万元,基本每股收益-0.079元至-0.061元;上年同期业绩:净利润-5652万元,基本每股收益-0.069元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润3500万元至4500万元;增长幅度为-9.45%至16.42%,基本每股收益0.038元至0.049元;上年同期业绩:净利润3865.15万元,基本每股收益0.04元;</t>
         </is>
       </c>
       <c r="G122" s="33">
@@ -4159,7 +4159,7 @@
     <row r="123" ht="14" customHeight="1">
       <c r="B123" s="34" t="inlineStr">
         <is>
-          <t>000656.SZ</t>
+          <t>002309.SZ</t>
         </is>
       </c>
       <c r="C123" s="29">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="F123" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-250000.00万元至-150000.00万元,基本每股收益-0.47元至-0.28元;上年同期业绩:净利润-193974.66万元,基本每股收益-0.37元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-27000万元至-20600万元,基本每股收益-0.31元至-0.24元;上年同期业绩:净利润-23896.20万元,基本每股收益-0.27元;</t>
         </is>
       </c>
       <c r="G123" s="33">
@@ -4187,7 +4187,7 @@
     <row r="124" ht="14" customHeight="1">
       <c r="B124" s="34" t="inlineStr">
         <is>
-          <t>600495.SH</t>
+          <t>000809.SZ</t>
         </is>
       </c>
       <c r="C124" s="29">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="F124" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-2300万元至-1900万元;上年同期业绩:净利润-2013.66万元,基本每股收益-0.02元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-6500万元至-5000万元,基本每股收益-0.079元至-0.061元;上年同期业绩:净利润-5652万元,基本每股收益-0.069元;</t>
         </is>
       </c>
       <c r="G124" s="33">
@@ -4215,7 +4215,7 @@
     <row r="125" ht="14" customHeight="1">
       <c r="B125" s="34" t="inlineStr">
         <is>
-          <t>000037.SZ</t>
+          <t>000656.SZ</t>
         </is>
       </c>
       <c r="C125" s="29">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="F125" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-4500万元至-3500万元,基本每股收益-0.0747元至-0.0581元;上年同期业绩:净利润-3724.07万元,基本每股收益-0.0618元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-250000.00万元至-150000.00万元,基本每股收益-0.47元至-0.28元;上年同期业绩:净利润-193974.66万元,基本每股收益-0.37元;</t>
         </is>
       </c>
       <c r="G125" s="33">
@@ -4243,7 +4243,7 @@
     <row r="126" ht="14" customHeight="1">
       <c r="B126" s="34" t="inlineStr">
         <is>
-          <t>002816.SZ</t>
+          <t>600495.SH</t>
         </is>
       </c>
       <c r="C126" s="29">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="F126" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-2800万元至-2000万元,基本每股收益-0.28元至-0.20元;上年同期业绩:净利润-2210.49万元,基本每股收益-0.2210元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-2300万元至-1900万元;上年同期业绩:净利润-2013.66万元,基本每股收益-0.02元;</t>
         </is>
       </c>
       <c r="G126" s="33">
@@ -4271,7 +4271,7 @@
     <row r="127" ht="14" customHeight="1">
       <c r="B127" s="34" t="inlineStr">
         <is>
-          <t>002348.SZ</t>
+          <t>000037.SZ</t>
         </is>
       </c>
       <c r="C127" s="29">
@@ -4288,7 +4288,7 @@
       </c>
       <c r="F127" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-4400万元至-3000万元;增长幅度为-35.21%至7.81%,基本每股收益-0.0465元至-0.0317元,增减变动为-35.17%至7.85%;上年同期业绩:净利润-3254.10万元,基本每股收益-0.0344元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-4500万元至-3500万元,基本每股收益-0.0747元至-0.0581元;上年同期业绩:净利润-3724.07万元,基本每股收益-0.0618元;</t>
         </is>
       </c>
       <c r="G127" s="33">
@@ -4299,7 +4299,7 @@
     <row r="128" ht="14" customHeight="1">
       <c r="B128" s="34" t="inlineStr">
         <is>
-          <t>600545.SH</t>
+          <t>002816.SZ</t>
         </is>
       </c>
       <c r="C128" s="29">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="F128" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-8000万元至-4000万元;上年同期业绩:净利润-5213.6万元,基本每股收益-0.0292元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-2800万元至-2000万元,基本每股收益-0.28元至-0.20元;上年同期业绩:净利润-2210.49万元,基本每股收益-0.2210元;</t>
         </is>
       </c>
       <c r="G128" s="33">
@@ -4327,7 +4327,7 @@
     <row r="129" ht="14" customHeight="1">
       <c r="B129" s="34" t="inlineStr">
         <is>
-          <t>000980.SZ</t>
+          <t>002348.SZ</t>
         </is>
       </c>
       <c r="C129" s="29">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="F129" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-39000万元至-29000万元,基本每股收益-0.08元至-0.06元;上年同期业绩:净利润-28393.05万元,基本每股收益-0.06元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-4400万元至-3000万元;增长幅度为-35.21%至7.81%,基本每股收益-0.0465元至-0.0317元,增减变动为-35.17%至7.85%;上年同期业绩:净利润-3254.10万元,基本每股收益-0.0344元;</t>
         </is>
       </c>
       <c r="G129" s="33">
@@ -4355,7 +4355,7 @@
     <row r="130" ht="14" customHeight="1">
       <c r="B130" s="34" t="inlineStr">
         <is>
-          <t>000610.SZ</t>
+          <t>600545.SH</t>
         </is>
       </c>
       <c r="C130" s="29">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="F130" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-6960.00万元至-5100.00万元,基本每股收益-0.2644元至-0.1859元;上年同期业绩:净利润-5025.79万元,基本每股收益-0.2123元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-8000万元至-4000万元;上年同期业绩:净利润-5213.6万元,基本每股收益-0.0292元;</t>
         </is>
       </c>
       <c r="G130" s="33">
@@ -4383,7 +4383,7 @@
     <row r="131" ht="14" customHeight="1">
       <c r="B131" s="34" t="inlineStr">
         <is>
-          <t>600800.SH</t>
+          <t>000980.SZ</t>
         </is>
       </c>
       <c r="C131" s="29">
@@ -4400,66 +4400,66 @@
       </c>
       <c r="F131" s="35" t="inlineStr">
         <is>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-39000万元至-29000万元,基本每股收益-0.08元至-0.06元;上年同期业绩:净利润-28393.05万元,基本每股收益-0.06元;</t>
+        </is>
+      </c>
+      <c r="G131" s="33">
+        <f>IFERROR(VLOOKUP(C131,重点公司!$C$2:$E$800,2,FALSE),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" ht="14" customHeight="1">
+      <c r="B132" s="34" t="inlineStr">
+        <is>
+          <t>000610.SZ</t>
+        </is>
+      </c>
+      <c r="C132" s="29">
+        <f>[1]!s_info_name(B132)</f>
+        <v/>
+      </c>
+      <c r="D132" s="39">
+        <f>[1]!s_info_industry_sw_2021(B132,"",1)</f>
+        <v/>
+      </c>
+      <c r="E132" s="31">
+        <f>IF([1]!s_info_industry_sw_2021(B132,"",2)="消费电子",分工!$E$4,VLOOKUP(D132,分工!$B$2:'分工'!$C$32,2,0))</f>
+        <v/>
+      </c>
+      <c r="F132" s="35" t="inlineStr">
+        <is>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-6960.00万元至-5100.00万元,基本每股收益-0.2644元至-0.1859元;上年同期业绩:净利润-5025.79万元,基本每股收益-0.2123元;</t>
+        </is>
+      </c>
+      <c r="G132" s="33">
+        <f>IFERROR(VLOOKUP(C132,重点公司!$C$2:$E$800,2,FALSE),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" ht="14" customHeight="1">
+      <c r="B133" s="34" t="inlineStr">
+        <is>
+          <t>600800.SH</t>
+        </is>
+      </c>
+      <c r="C133" s="29">
+        <f>[1]!s_info_name(B133)</f>
+        <v/>
+      </c>
+      <c r="D133" s="39">
+        <f>[1]!s_info_industry_sw_2021(B133,"",1)</f>
+        <v/>
+      </c>
+      <c r="E133" s="31">
+        <f>IF([1]!s_info_industry_sw_2021(B133,"",2)="消费电子",分工!$E$4,VLOOKUP(D133,分工!$B$2:'分工'!$C$32,2,0))</f>
+        <v/>
+      </c>
+      <c r="F133" s="35" t="inlineStr">
+        <is>
           <t>预计2024-01-01到2024-06-30业绩：净利润-32900万元至-31400万元;上年同期业绩:净利润-26619.59万元,基本每股收益-0.22
 元;</t>
         </is>
       </c>
-      <c r="G131" s="33">
-        <f>IFERROR(VLOOKUP(C131,重点公司!$C$2:$E$800,2,FALSE),0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" ht="14" customHeight="1">
-      <c r="B132" s="34" t="inlineStr">
-        <is>
-          <t>000615.SZ</t>
-        </is>
-      </c>
-      <c r="C132" s="29">
-        <f>[1]!s_info_name(B132)</f>
-        <v/>
-      </c>
-      <c r="D132" s="39">
-        <f>[1]!s_info_industry_sw_2021(B132,"",1)</f>
-        <v/>
-      </c>
-      <c r="E132" s="31">
-        <f>IF([1]!s_info_industry_sw_2021(B132,"",2)="消费电子",分工!$E$4,VLOOKUP(D132,分工!$B$2:'分工'!$C$32,2,0))</f>
-        <v/>
-      </c>
-      <c r="F132" s="35" t="inlineStr">
-        <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-5800万元至-4200万元,基本每股收益-0.0760元至-0.0550元;上年同期业绩:净利润-4119.10万元,基本每股收益-0.0540元;</t>
-        </is>
-      </c>
-      <c r="G132" s="33">
-        <f>IFERROR(VLOOKUP(C132,重点公司!$C$2:$E$800,2,FALSE),0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" ht="14" customHeight="1">
-      <c r="B133" s="34" t="inlineStr">
-        <is>
-          <t>000571.SZ</t>
-        </is>
-      </c>
-      <c r="C133" s="29">
-        <f>[1]!s_info_name(B133)</f>
-        <v/>
-      </c>
-      <c r="D133" s="39">
-        <f>[1]!s_info_industry_sw_2021(B133,"",1)</f>
-        <v/>
-      </c>
-      <c r="E133" s="31">
-        <f>IF([1]!s_info_industry_sw_2021(B133,"",2)="消费电子",分工!$E$4,VLOOKUP(D133,分工!$B$2:'分工'!$C$32,2,0))</f>
-        <v/>
-      </c>
-      <c r="F133" s="35" t="inlineStr">
-        <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-3500万元至-2400万元,基本每股收益-0.0420元至-0.0288元;上年同期业绩:净利润-2426.46万元,基本每股收益-0.0298元;</t>
-        </is>
-      </c>
       <c r="G133" s="33">
         <f>IFERROR(VLOOKUP(C133,重点公司!$C$2:$E$800,2,FALSE),0)</f>
         <v/>
@@ -4468,7 +4468,7 @@
     <row r="134" ht="14" customHeight="1">
       <c r="B134" s="34" t="inlineStr">
         <is>
-          <t>003004.SZ</t>
+          <t>000615.SZ</t>
         </is>
       </c>
       <c r="C134" s="29">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="F134" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-2600万元至-2000万元,基本每股收益-0.3189元至-0.2453元;上年同期业绩:净利润-1859.56万元,基本每股收益-0.2272元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-5800万元至-4200万元,基本每股收益-0.0760元至-0.0550元;上年同期业绩:净利润-4119.10万元,基本每股收益-0.0540元;</t>
         </is>
       </c>
       <c r="G134" s="33">
@@ -4496,7 +4496,7 @@
     <row r="135" ht="14" customHeight="1">
       <c r="B135" s="34" t="inlineStr">
         <is>
-          <t>001313.SZ</t>
+          <t>000571.SZ</t>
         </is>
       </c>
       <c r="C135" s="29">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="F135" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-5050万元至-4050万元;下降幅度为44.31%至15.73%,基本每股收益-0.07元至-0.06元;上年同期业绩:净利润-3499.40万元,基本每股收益-0.05元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-3500万元至-2400万元,基本每股收益-0.0420元至-0.0288元;上年同期业绩:净利润-2426.46万元,基本每股收益-0.0298元;</t>
         </is>
       </c>
       <c r="G135" s="33">
@@ -4524,7 +4524,7 @@
     <row r="136" ht="14" customHeight="1">
       <c r="B136" s="34" t="inlineStr">
         <is>
-          <t>000826.SZ</t>
+          <t>003004.SZ</t>
         </is>
       </c>
       <c r="C136" s="29">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="F136" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-23000万元至-19000万元;下降幅度为44.10%至19.04%,基本每股收益-0.20元至-0.18元;上年同期业绩:净利润-15961.19万元,基本每股收益-0.15元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-2600万元至-2000万元,基本每股收益-0.3189元至-0.2453元;上年同期业绩:净利润-1859.56万元,基本每股收益-0.2272元;</t>
         </is>
       </c>
       <c r="G136" s="33">
@@ -4552,7 +4552,7 @@
     <row r="137" ht="14" customHeight="1">
       <c r="B137" s="34" t="inlineStr">
         <is>
-          <t>600593.SH</t>
+          <t>001313.SZ</t>
         </is>
       </c>
       <c r="C137" s="29">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="F137" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润1015.14万元至1522.72万元;下降幅度为47.49%至21.24%;上年同期业绩:净利润1933.26万元,基本每股收益0.1501元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-5050万元至-4050万元;下降幅度为44.31%至15.73%,基本每股收益-0.07元至-0.06元;上年同期业绩:净利润-3499.40万元,基本每股收益-0.05元;</t>
         </is>
       </c>
       <c r="G137" s="33">
@@ -4580,7 +4580,7 @@
     <row r="138" ht="14" customHeight="1">
       <c r="B138" s="34" t="inlineStr">
         <is>
-          <t>002888.SZ</t>
+          <t>000826.SZ</t>
         </is>
       </c>
       <c r="C138" s="29">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="F138" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-400万元至-200万元,基本每股收益-0.0272元至-0.0136元;上年同期业绩:净利润-222万元,基本每股收益-0.0151元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-23000万元至-19000万元;下降幅度为44.10%至19.04%,基本每股收益-0.20元至-0.18元;上年同期业绩:净利润-15961.19万元,基本每股收益-0.15元;</t>
         </is>
       </c>
       <c r="G138" s="33">
@@ -4608,7 +4608,7 @@
     <row r="139" ht="14" customHeight="1">
       <c r="B139" s="34" t="inlineStr">
         <is>
-          <t>000558.SZ</t>
+          <t>600593.SH</t>
         </is>
       </c>
       <c r="C139" s="29">
@@ -4625,7 +4625,7 @@
       </c>
       <c r="F139" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润600万元至900万元,基本每股收益0.0047元至0.0070元;上年同期业绩:净利润1203.13万元,基本每股收益0.0093元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润1015.14万元至1522.72万元;下降幅度为47.49%至21.24%;上年同期业绩:净利润1933.26万元,基本每股收益0.1501元;</t>
         </is>
       </c>
       <c r="G139" s="33">
@@ -4636,7 +4636,7 @@
     <row r="140" ht="14" customHeight="1">
       <c r="B140" s="34" t="inlineStr">
         <is>
-          <t>002724.SZ</t>
+          <t>002888.SZ</t>
         </is>
       </c>
       <c r="C140" s="29">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="F140" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润4178.37万元至4862.04万元;下降幅度为48.07%至39.58%,基本每股收益0.0542元至0.0630元;上年同期业绩:净利润8046.51万元,基本每股收益0.1032元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-400万元至-200万元,基本每股收益-0.0272元至-0.0136元;上年同期业绩:净利润-222万元,基本每股收益-0.0151元;</t>
         </is>
       </c>
       <c r="G140" s="33">
@@ -4664,7 +4664,7 @@
     <row r="141" ht="14" customHeight="1">
       <c r="B141" s="34" t="inlineStr">
         <is>
-          <t>603007.SH</t>
+          <t>000558.SZ</t>
         </is>
       </c>
       <c r="C141" s="29">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="F141" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-7900万元至-5300万元;上年同期业绩:净利润-4575.65万元,基本每股收益-0.14元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润600万元至900万元,基本每股收益0.0047元至0.0070元;上年同期业绩:净利润1203.13万元,基本每股收益0.0093元;</t>
         </is>
       </c>
       <c r="G141" s="33">
@@ -4692,7 +4692,7 @@
     <row r="142" ht="14" customHeight="1">
       <c r="B142" s="34" t="inlineStr">
         <is>
-          <t>002513.SZ</t>
+          <t>002792.SZ</t>
         </is>
       </c>
       <c r="C142" s="29">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="F142" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-17000万元至-10000万元,基本每股收益-0.48元至-0.28元;上年同期业绩:净利润-9166.07万元,基本每股收益-0.25元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润2200万元至3000万元;下降幅度为47.51%至28.43%,基本每股收益0.0421元至0.0574元;上年同期业绩:净利润4191.55万元,基本每股收益0.0802元;</t>
         </is>
       </c>
       <c r="G142" s="33">
@@ -4720,7 +4720,7 @@
     <row r="143" ht="14" customHeight="1">
       <c r="B143" s="34" t="inlineStr">
         <is>
-          <t>000430.SZ</t>
+          <t>002724.SZ</t>
         </is>
       </c>
       <c r="C143" s="29">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="F143" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-6300万元至-5800万元;下降幅度为53.61%至41.42%,基本每股收益-0.1556元至-0.1433元;上年同期业绩:净利润-4101.29万元,基本每股收益-0.10元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润4178.37万元至4862.04万元;下降幅度为48.07%至39.58%,基本每股收益0.0542元至0.0630元;上年同期业绩:净利润8046.51万元,基本每股收益0.1032元;</t>
         </is>
       </c>
       <c r="G143" s="33">
@@ -4748,7 +4748,7 @@
     <row r="144" ht="14" customHeight="1">
       <c r="B144" s="34" t="inlineStr">
         <is>
-          <t>002334.SZ</t>
+          <t>603007.SH</t>
         </is>
       </c>
       <c r="C144" s="29">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="F144" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润9500万元至11500万元;下降幅度为57.14%至48.11%,基本每股收益0.12元至0.14元;上年同期业绩:净利润22163.49万元,基本每股收益0.28元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-7900万元至-5300万元;上年同期业绩:净利润-4575.65万元,基本每股收益-0.14元;</t>
         </is>
       </c>
       <c r="G144" s="33">
@@ -4776,7 +4776,7 @@
     <row r="145" ht="14" customHeight="1">
       <c r="B145" s="34" t="inlineStr">
         <is>
-          <t>603639.SH</t>
+          <t>002513.SZ</t>
         </is>
       </c>
       <c r="C145" s="29">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="F145" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润14000万元至17000万元;下降幅度为57.68%至48.61%;上年同期业绩:净利润33078.39万元,基本每股收益0.97元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-17000万元至-10000万元,基本每股收益-0.48元至-0.28元;上年同期业绩:净利润-9166.07万元,基本每股收益-0.25元;</t>
         </is>
       </c>
       <c r="G145" s="33">
@@ -4804,7 +4804,7 @@
     <row r="146" ht="14" customHeight="1">
       <c r="B146" s="34" t="inlineStr">
         <is>
-          <t>002518.SZ</t>
+          <t>000430.SZ</t>
         </is>
       </c>
       <c r="C146" s="29">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="F146" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润20000万元至26000万元;下降幅度为60%至48%,基本每股收益0.34元至0.44元;上年同期业绩:净利润50096万元,基本每股收益0.86元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-6300万元至-5800万元;下降幅度为53.61%至41.42%,基本每股收益-0.1556元至-0.1433元;上年同期业绩:净利润-4101.29万元,基本每股收益-0.10元;</t>
         </is>
       </c>
       <c r="G146" s="33">
@@ -4832,7 +4832,7 @@
     <row r="147" ht="14" customHeight="1">
       <c r="B147" s="34" t="inlineStr">
         <is>
-          <t>000009.SZ</t>
+          <t>002334.SZ</t>
         </is>
       </c>
       <c r="C147" s="29">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="F147" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润19800.00万元至25000.00万元;下降幅度为59.73%至49.15%,基本每股收益0.0768元至0.0969元;上年同期业绩:净利润49166.91万元,基本每股收益0.1906元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润9500万元至11500万元;下降幅度为57.14%至48.11%,基本每股收益0.12元至0.14元;上年同期业绩:净利润22163.49万元,基本每股收益0.28元;</t>
         </is>
       </c>
       <c r="G147" s="33">
@@ -4860,7 +4860,7 @@
     <row r="148" ht="14" customHeight="1">
       <c r="B148" s="34" t="inlineStr">
         <is>
-          <t>003022.SZ</t>
+          <t>603639.SH</t>
         </is>
       </c>
       <c r="C148" s="29">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="F148" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润13500万元至15000万元;下降幅度为58.59%至53.99%,基本每股收益0.10元至0.11元;上年同期业绩:净利润32599.98万元,基本每股收益0.24元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润14000万元至17000万元;下降幅度为57.68%至48.61%;上年同期业绩:净利润33078.39万元,基本每股收益0.97元;</t>
         </is>
       </c>
       <c r="G148" s="33">
@@ -4888,7 +4888,7 @@
     <row r="149" ht="14" customHeight="1">
       <c r="B149" s="34" t="inlineStr">
         <is>
-          <t>601699.SH</t>
+          <t>002518.SZ</t>
         </is>
       </c>
       <c r="C149" s="29">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="F149" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润205000.00万元至235000.00万元;下降幅度为61.29%至55.63%;上年同期业绩:净利润529600.00万元,基本每股收益1.77元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润20000万元至26000万元;下降幅度为60%至48%,基本每股收益0.34元至0.44元;上年同期业绩:净利润50096万元,基本每股收益0.86元;</t>
         </is>
       </c>
       <c r="G149" s="33">
@@ -4916,7 +4916,7 @@
     <row r="150" ht="14" customHeight="1">
       <c r="B150" s="34" t="inlineStr">
         <is>
-          <t>601005.SH</t>
+          <t>000009.SZ</t>
         </is>
       </c>
       <c r="C150" s="29">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="F150" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-69000万元左右;上年同期业绩:净利润-43474万元,基本每股收益-0.05元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润19800.00万元至25000.00万元;下降幅度为59.73%至49.15%,基本每股收益0.0768元至0.0969元;上年同期业绩:净利润49166.91万元,基本每股收益0.1906元;</t>
         </is>
       </c>
       <c r="G150" s="33">
@@ -4944,7 +4944,7 @@
     <row r="151" ht="14" customHeight="1">
       <c r="B151" s="34" t="inlineStr">
         <is>
-          <t>000893.SZ</t>
+          <t>003022.SZ</t>
         </is>
       </c>
       <c r="C151" s="29">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="F151" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润22000万元至33000万元;下降幅度为69%至54%,基本每股收益0.24元至0.36元;上年同期业绩:净利润71644.67万元,基本每股收益0.77元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润13500万元至15000万元;下降幅度为58.59%至53.99%,基本每股收益0.10元至0.11元;上年同期业绩:净利润32599.98万元,基本每股收益0.24元;</t>
         </is>
       </c>
       <c r="G151" s="33">
@@ -4972,7 +4972,7 @@
     <row r="152" ht="14" customHeight="1">
       <c r="B152" s="34" t="inlineStr">
         <is>
-          <t>000625.SZ</t>
+          <t>601699.SH</t>
         </is>
       </c>
       <c r="C152" s="29">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F152" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润250000万元至320000万元;下降幅度为67.33%至58.19%,基本每股收益0.25元至0.32元;上年同期业绩:净利润765297.93万元,基本每股收益0.78元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润205000.00万元至235000.00万元;下降幅度为61.29%至55.63%;上年同期业绩:净利润529600.00万元,基本每股收益1.77元;</t>
         </is>
       </c>
       <c r="G152" s="33">
@@ -5000,7 +5000,7 @@
     <row r="153" ht="14" customHeight="1">
       <c r="B153" s="34" t="inlineStr">
         <is>
-          <t>002603.SZ</t>
+          <t>601005.SH</t>
         </is>
       </c>
       <c r="C153" s="29">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="F153" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润43362.57万元至64240.84万元;下降幅度为73%至60%,基本每股收益0.26元至0.38元;上年同期业绩:净利润160602.10万元,基本每股收益0.96元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-69000万元左右;上年同期业绩:净利润-43474万元,基本每股收益-0.05元;</t>
         </is>
       </c>
       <c r="G153" s="33">
@@ -5028,7 +5028,7 @@
     <row r="154" ht="14" customHeight="1">
       <c r="B154" s="34" t="inlineStr">
         <is>
-          <t>002821.SZ</t>
+          <t>000893.SZ</t>
         </is>
       </c>
       <c r="C154" s="29">
@@ -5045,7 +5045,7 @@
       </c>
       <c r="F154" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润48000万元至55000万元;下降幅度为71.54%至67.39%,基本每股收益1.36元至1.56元;上年同期业绩:净利润168636.90万元,基本每股收益4.65元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润22000万元至33000万元;下降幅度为69%至54%,基本每股收益0.24元至0.36元;上年同期业绩:净利润71644.67万元,基本每股收益0.77元;</t>
         </is>
       </c>
       <c r="G154" s="33">
@@ -5056,7 +5056,7 @@
     <row r="155" ht="14" customHeight="1">
       <c r="B155" s="34" t="inlineStr">
         <is>
-          <t>002107.SZ</t>
+          <t>000625.SZ</t>
         </is>
       </c>
       <c r="C155" s="29">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="F155" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润890.00万元至1320.00万元;下降幅度为76.08%至64.52%,基本每股收益0.0154元至0.0229元;上年同期业绩:净利润3720.40万元,基本每股收益0.0645元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润250000万元至320000万元;下降幅度为67.33%至58.19%,基本每股收益0.25元至0.32元;上年同期业绩:净利润765297.93万元,基本每股收益0.78元;</t>
         </is>
       </c>
       <c r="G155" s="33">
@@ -5084,7 +5084,7 @@
     <row r="156" ht="14" customHeight="1">
       <c r="B156" s="34" t="inlineStr">
         <is>
-          <t>002407.SZ</t>
+          <t>002603.SZ</t>
         </is>
       </c>
       <c r="C156" s="29">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="F156" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润6000万元至9000万元;下降幅度为77.63%至66.44%,基本每股收益0.0506元至0.0758元;上年同期业绩:净利润26819.94万元,基本每股收益0.25元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润43362.57万元至64240.84万元;下降幅度为73%至60%,基本每股收益0.26元至0.38元;上年同期业绩:净利润160602.10万元,基本每股收益0.96元;</t>
         </is>
       </c>
       <c r="G156" s="33">
@@ -5112,7 +5112,7 @@
     <row r="157" ht="14" customHeight="1">
       <c r="B157" s="34" t="inlineStr">
         <is>
-          <t>002370.SZ</t>
+          <t>002821.SZ</t>
         </is>
       </c>
       <c r="C157" s="29">
@@ -5129,7 +5129,7 @@
       </c>
       <c r="F157" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润450万元至650万元;下降幅度为77.23%至67.12%,基本每股收益0.0074元至0.0107元;上年同期业绩:净利润1976.65万元,基本每股收益0.04元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润48000万元至55000万元;下降幅度为71.54%至67.39%,基本每股收益1.36元至1.56元;上年同期业绩:净利润168636.90万元,基本每股收益4.65元;</t>
         </is>
       </c>
       <c r="G157" s="33">
@@ -5140,7 +5140,7 @@
     <row r="158" ht="14" customHeight="1">
       <c r="B158" s="34" t="inlineStr">
         <is>
-          <t>600973.SH</t>
+          <t>002107.SZ</t>
         </is>
       </c>
       <c r="C158" s="29">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="F158" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润1000万元至2000万元;下降幅度为83.35%至66.71%;上年同期业绩:净利润6007.05万元,基本每股收益0.044元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润890.00万元至1320.00万元;下降幅度为76.08%至64.52%,基本每股收益0.0154元至0.0229元;上年同期业绩:净利润3720.40万元,基本每股收益0.0645元;</t>
         </is>
       </c>
       <c r="G158" s="33">
@@ -5168,7 +5168,7 @@
     <row r="159" ht="14" customHeight="1">
       <c r="B159" s="34" t="inlineStr">
         <is>
-          <t>002524.SZ</t>
+          <t>002407.SZ</t>
         </is>
       </c>
       <c r="C159" s="29">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="F159" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润100万元至150万元;下降幅度为80.67%至71.00%,基本每股收益为0.00元左右;上年同期业绩:净利润517.22万元,基本每股收益0.01元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润6000万元至9000万元;下降幅度为77.63%至66.44%,基本每股收益0.0506元至0.0758元;上年同期业绩:净利润26819.94万元,基本每股收益0.25元;</t>
         </is>
       </c>
       <c r="G159" s="33">
@@ -5196,7 +5196,7 @@
     <row r="160" ht="14" customHeight="1">
       <c r="B160" s="34" t="inlineStr">
         <is>
-          <t>600635.SH</t>
+          <t>002370.SZ</t>
         </is>
       </c>
       <c r="C160" s="29">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="F160" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润8500万元至12500万元;下降幅度为82.20%至73.82%;上年同期业绩:净利润47752.15218万元,基本每股收益0.1617元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润450万元至650万元;下降幅度为77.23%至67.12%,基本每股收益0.0074元至0.0107元;上年同期业绩:净利润1976.65万元,基本每股收益0.04元;</t>
         </is>
       </c>
       <c r="G160" s="33">
@@ -5224,7 +5224,7 @@
     <row r="161" ht="14" customHeight="1">
       <c r="B161" s="34" t="inlineStr">
         <is>
-          <t>000520.SZ</t>
+          <t>600973.SH</t>
         </is>
       </c>
       <c r="C161" s="29">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="F161" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-1700万元至-1300万元;下降幅度为103.35%至55.50%,基本每股收益-0.0168元至-0.0128元;上年同期业绩:净利润-835.99万元,基本每股收益-0.0083元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润1000万元至2000万元;下降幅度为83.35%至66.71%;上年同期业绩:净利润6007.05万元,基本每股收益0.044元;</t>
         </is>
       </c>
       <c r="G161" s="33">
@@ -5252,7 +5252,7 @@
     <row r="162" ht="14" customHeight="1">
       <c r="B162" s="34" t="inlineStr">
         <is>
-          <t>000023.SZ</t>
+          <t>002524.SZ</t>
         </is>
       </c>
       <c r="C162" s="29">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="F162" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-10000万元至-8000万元;下降幅度为99.62%至59.69%,基本每股收益-0.7207元至-0.5766元;上年同期业绩:净利润-5009.59万元,基本每股收益-0.3610元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润100万元至150万元;下降幅度为80.67%至71.00%,基本每股收益为0.00元左右;上年同期业绩:净利润517.22万元,基本每股收益0.01元;</t>
         </is>
       </c>
       <c r="G162" s="33">
@@ -5280,7 +5280,7 @@
     <row r="163" ht="14" customHeight="1">
       <c r="B163" s="34" t="inlineStr">
         <is>
-          <t>002952.SZ</t>
+          <t>600635.SH</t>
         </is>
       </c>
       <c r="C163" s="29">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="F163" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润684.00万元至1024.00万元;下降幅度为83.80%至75.75%,基本每股收益0.04元至0.06元;上年同期业绩:净利润4223.50万元,基本每股收益0.26元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润8500万元至12500万元;下降幅度为82.20%至73.82%;上年同期业绩:净利润47752.15218万元,基本每股收益0.1617元;</t>
         </is>
       </c>
       <c r="G163" s="33">
@@ -5308,7 +5308,7 @@
     <row r="164" ht="14" customHeight="1">
       <c r="B164" s="34" t="inlineStr">
         <is>
-          <t>002079.SZ</t>
+          <t>000520.SZ</t>
         </is>
       </c>
       <c r="C164" s="29">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="F164" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润865.98万元至1298.96万元;下降幅度为84.39%至76.58%,基本每股收益0.0107元至0.0161元;上年同期业绩:净利润5547.32万元,基本每股收益0.0687元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-1700万元至-1300万元;下降幅度为103.35%至55.50%,基本每股收益-0.0168元至-0.0128元;上年同期业绩:净利润-835.99万元,基本每股收益-0.0083元;</t>
         </is>
       </c>
       <c r="G164" s="33">
@@ -5336,7 +5336,7 @@
     <row r="165" ht="14" customHeight="1">
       <c r="B165" s="34" t="inlineStr">
         <is>
-          <t>001266.SZ</t>
+          <t>000023.SZ</t>
         </is>
       </c>
       <c r="C165" s="29">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="F165" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润230万元至340万元;下降幅度为84%至77%,基本每股收益0.02元至0.03元;上年同期业绩:净利润1476.00万元,基本每股收益0.14元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-10000万元至-8000万元;下降幅度为99.62%至59.69%,基本每股收益-0.7207元至-0.5766元;上年同期业绩:净利润-5009.59万元,基本每股收益-0.3610元;</t>
         </is>
       </c>
       <c r="G165" s="33">
@@ -5364,7 +5364,7 @@
     <row r="166" ht="14" customHeight="1">
       <c r="B166" s="34" t="inlineStr">
         <is>
-          <t>000301.SZ</t>
+          <t>002952.SZ</t>
         </is>
       </c>
       <c r="C166" s="29">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="F166" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润30000万元至35000万元;下降幅度为82.67%至79.78%,基本每股收益0.0454元至0.0529元;上年同期业绩:净利润173079.42万元,基本每股收益0.26元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润684.00万元至1024.00万元;下降幅度为83.80%至75.75%,基本每股收益0.04元至0.06元;上年同期业绩:净利润4223.50万元,基本每股收益0.26元;</t>
         </is>
       </c>
       <c r="G166" s="33">
@@ -5392,7 +5392,7 @@
     <row r="167" ht="14" customHeight="1">
       <c r="B167" s="34" t="inlineStr">
         <is>
-          <t>605138.SH</t>
+          <t>002079.SZ</t>
         </is>
       </c>
       <c r="C167" s="29">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="F167" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润1900万元至2800万元;下降幅度为84.85%至77.67%;上年同期业绩:净利润12537.97万元,基本每股收益0.23元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润865.98万元至1298.96万元;下降幅度为84.39%至76.58%,基本每股收益0.0107元至0.0161元;上年同期业绩:净利润5547.32万元,基本每股收益0.0687元;</t>
         </is>
       </c>
       <c r="G167" s="33">
@@ -5420,7 +5420,7 @@
     <row r="168" ht="14" customHeight="1">
       <c r="B168" s="34" t="inlineStr">
         <is>
-          <t>002512.SZ</t>
+          <t>001266.SZ</t>
         </is>
       </c>
       <c r="C168" s="29">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="F168" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润150万元至225万元;下降幅度为85.39%至78.09%,基本每股收益0.0014元至0.0021元;上年同期业绩:净利润1026.82万元,基本每股收益0.0094元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润230万元至340万元;下降幅度为84%至77%,基本每股收益0.02元至0.03元;上年同期业绩:净利润1476.00万元,基本每股收益0.14元;</t>
         </is>
       </c>
       <c r="G168" s="33">
@@ -5448,7 +5448,7 @@
     <row r="169" ht="14" customHeight="1">
       <c r="B169" s="34" t="inlineStr">
         <is>
-          <t>002709.SZ</t>
+          <t>000301.SZ</t>
         </is>
       </c>
       <c r="C169" s="29">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="F169" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润21000万元至26000万元;下降幅度为83.70%至79.82%,基本每股收益0.11元至0.14元;上年同期业绩:净利润128835万元,基本每股收益0.68元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润30000万元至35000万元;下降幅度为82.67%至79.78%,基本每股收益0.0454元至0.0529元;上年同期业绩:净利润173079.42万元,基本每股收益0.26元;</t>
         </is>
       </c>
       <c r="G169" s="33">
@@ -5476,7 +5476,7 @@
     <row r="170" ht="14" customHeight="1">
       <c r="B170" s="34" t="inlineStr">
         <is>
-          <t>603709.SH</t>
+          <t>605138.SH</t>
         </is>
       </c>
       <c r="C170" s="29">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="F170" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润241.20万元至350.58万元;下降幅度为86.38%至80.20%;上年同期业绩:净利润1770.50万元,基本每股收益0.22元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润1900万元至2800万元;下降幅度为84.85%至77.67%;上年同期业绩:净利润12537.97万元,基本每股收益0.23元;</t>
         </is>
       </c>
       <c r="G170" s="33">
@@ -5504,7 +5504,7 @@
     <row r="171" ht="14" customHeight="1">
       <c r="B171" s="34" t="inlineStr">
         <is>
-          <t>600805.SH</t>
+          <t>002512.SZ</t>
         </is>
       </c>
       <c r="C171" s="29">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="F171" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润1100万元左右;下降幅度为84.33%左右;上年同期业绩:净利润7019.74万元,基本每股收益0.08元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润150万元至225万元;下降幅度为85.39%至78.09%,基本每股收益0.0014元至0.0021元;上年同期业绩:净利润1026.82万元,基本每股收益0.0094元;</t>
         </is>
       </c>
       <c r="G171" s="33">
@@ -5532,7 +5532,7 @@
     <row r="172" ht="14" customHeight="1">
       <c r="B172" s="34" t="inlineStr">
         <is>
-          <t>603392.SH</t>
+          <t>002709.SZ</t>
         </is>
       </c>
       <c r="C172" s="29">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="F172" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润24000万元至29000万元;下降幅度为85.90%至82.96%;上年同期业绩:净利润170236万元,基本每股收益1.34元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润21000万元至26000万元;下降幅度为83.70%至79.82%,基本每股收益0.11元至0.14元;上年同期业绩:净利润128835万元,基本每股收益0.68元;</t>
         </is>
       </c>
       <c r="G172" s="33">
@@ -5560,7 +5560,7 @@
     <row r="173" ht="14" customHeight="1">
       <c r="B173" s="34" t="inlineStr">
         <is>
-          <t>000609.SZ</t>
+          <t>603709.SH</t>
         </is>
       </c>
       <c r="C173" s="29">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="F173" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-12000万元至-6500万元,基本每股收益-0.40元至-0.22元;上年同期业绩:净利润-4966.88万元,基本每股收益-0.17元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润241.20万元至350.58万元;下降幅度为86.38%至80.20%;上年同期业绩:净利润1770.50万元,基本每股收益0.22元;</t>
         </is>
       </c>
       <c r="G173" s="33">
@@ -5588,7 +5588,7 @@
     <row r="174" ht="14" customHeight="1">
       <c r="B174" s="34" t="inlineStr">
         <is>
-          <t>603719.SH</t>
+          <t>600805.SH</t>
         </is>
       </c>
       <c r="C174" s="29">
@@ -5605,7 +5605,7 @@
       </c>
       <c r="F174" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润2100万元至3000万元;下降幅度为88.91%至84.15%;上年同期业绩:净利润18930.6048万元,基本每股收益0.48元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润1100万元左右;下降幅度为84.33%左右;上年同期业绩:净利润7019.74万元,基本每股收益0.08元;</t>
         </is>
       </c>
       <c r="G174" s="33">
@@ -5616,7 +5616,7 @@
     <row r="175" ht="14" customHeight="1">
       <c r="B175" s="34" t="inlineStr">
         <is>
-          <t>002723.SZ</t>
+          <t>603392.SH</t>
         </is>
       </c>
       <c r="C175" s="29">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F175" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润300万元至450万元;下降幅度为90.07%至85.10%,基本每股收益0.0094元至0.0142元;上年同期业绩:净利润3020.29万元,基本每股收益0.0950元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润24000万元至29000万元;下降幅度为85.90%至82.96%;上年同期业绩:净利润170236万元,基本每股收益1.34元;</t>
         </is>
       </c>
       <c r="G175" s="33">
@@ -5644,7 +5644,7 @@
     <row r="176" ht="14" customHeight="1">
       <c r="B176" s="34" t="inlineStr">
         <is>
-          <t>002038.SZ</t>
+          <t>000609.SZ</t>
         </is>
       </c>
       <c r="C176" s="29">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="F176" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润2800万元至4200万元;下降幅度为91.17%至86.76%,基本每股收益0.03元至0.04元;上年同期业绩:净利润31716.41万元,基本每股收益0.31元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-12000万元至-6500万元,基本每股收益-0.40元至-0.22元;上年同期业绩:净利润-4966.88万元,基本每股收益-0.17元;</t>
         </is>
       </c>
       <c r="G176" s="33">
@@ -5672,7 +5672,7 @@
     <row r="177" ht="14" customHeight="1">
       <c r="B177" s="34" t="inlineStr">
         <is>
-          <t>002497.SZ</t>
+          <t>603719.SH</t>
         </is>
       </c>
       <c r="C177" s="29">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="F177" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润8000万元至12000万元;下降幅度为91.58%至87.38%,基本每股收益0.0694元至0.1041元;上年同期业绩:净利润95060.74万元,基本每股收益0.8248元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润2100万元至3000万元;下降幅度为88.91%至84.15%;上年同期业绩:净利润18930.6048万元,基本每股收益0.48元;</t>
         </is>
       </c>
       <c r="G177" s="33">
@@ -5700,7 +5700,7 @@
     <row r="178" ht="14" customHeight="1">
       <c r="B178" s="34" t="inlineStr">
         <is>
-          <t>002391.SZ</t>
+          <t>002723.SZ</t>
         </is>
       </c>
       <c r="C178" s="29">
@@ -5717,7 +5717,7 @@
       </c>
       <c r="F178" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润1500.00万元至2000.00万元;下降幅度为91.31%至88.41%,基本每股收益0.0231元至0.0308元;上年同期业绩:净利润17253.45万元,基本每股收益0.2656元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润300万元至450万元;下降幅度为90.07%至85.10%,基本每股收益0.0094元至0.0142元;上年同期业绩:净利润3020.29万元,基本每股收益0.0950元;</t>
         </is>
       </c>
       <c r="G178" s="33">
@@ -5728,7 +5728,7 @@
     <row r="179" ht="14" customHeight="1">
       <c r="B179" s="34" t="inlineStr">
         <is>
-          <t>001255.SZ</t>
+          <t>002038.SZ</t>
         </is>
       </c>
       <c r="C179" s="29">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="F179" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润0万元至600万元;下降幅度为100.00%至80.11%,基本每股收益0元至0.08元;上年同期业绩:净利润3015.94万元,基本每股收益0.38元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润2800万元至4200万元;下降幅度为91.17%至86.76%,基本每股收益0.03元至0.04元;上年同期业绩:净利润31716.41万元,基本每股收益0.31元;</t>
         </is>
       </c>
       <c r="G179" s="33">
@@ -5756,7 +5756,7 @@
     <row r="180" ht="14" customHeight="1">
       <c r="B180" s="34" t="inlineStr">
         <is>
-          <t>002261.SZ</t>
+          <t>002497.SZ</t>
         </is>
       </c>
       <c r="C180" s="29">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="F180" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润400.00万元至600.00万元;下降幅度为93.08%至89.62%,基本每股收益0.0032元至0.0048元,增减变动为-93.09%至-89.63%;上年同期业绩:净利润5781.47万元,基本每股收益0.0463元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润8000万元至12000万元;下降幅度为91.58%至87.38%,基本每股收益0.0694元至0.1041元;上年同期业绩:净利润95060.74万元,基本每股收益0.8248元;</t>
         </is>
       </c>
       <c r="G180" s="33">
@@ -5784,7 +5784,7 @@
     <row r="181" ht="14" customHeight="1">
       <c r="B181" s="34" t="inlineStr">
         <is>
-          <t>603032.SH</t>
+          <t>002391.SZ</t>
         </is>
       </c>
       <c r="C181" s="29">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="F181" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润700万元至900万元;下降幅度为94.96%至93.53%;上年同期业绩:净利润13900.39万元,基本每股收益0.61元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润1500.00万元至2000.00万元;下降幅度为91.31%至88.41%,基本每股收益0.0231元至0.0308元;上年同期业绩:净利润17253.45万元,基本每股收益0.2656元;</t>
         </is>
       </c>
       <c r="G181" s="33">
@@ -5812,7 +5812,7 @@
     <row r="182" ht="14" customHeight="1">
       <c r="B182" s="34" t="inlineStr">
         <is>
-          <t>002373.SZ</t>
+          <t>001255.SZ</t>
         </is>
       </c>
       <c r="C182" s="29">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="F182" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润1000万元至1500万元;下降幅度为96.49%至94.74%,基本每股收益为0.01元左右;上年同期业绩:净利润28509.04万元,基本每股收益0.18元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润0万元至600万元;下降幅度为100.00%至80.11%,基本每股收益0元至0.08元;上年同期业绩:净利润3015.94万元,基本每股收益0.38元;</t>
         </is>
       </c>
       <c r="G182" s="33">
@@ -5840,7 +5840,7 @@
     <row r="183" ht="14" customHeight="1">
       <c r="B183" s="34" t="inlineStr">
         <is>
-          <t>002232.SZ</t>
+          <t>002261.SZ</t>
         </is>
       </c>
       <c r="C183" s="29">
@@ -5857,7 +5857,7 @@
       </c>
       <c r="F183" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润43万元至64万元;下降幅度为99.03%至98.56%,基本每股收益0.0011元至0.0016元;上年同期业绩:净利润4454.83万元,基本每股收益0.1090元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润400.00万元至600.00万元;下降幅度为93.08%至89.62%,基本每股收益0.0032元至0.0048元,增减变动为-93.09%至-89.63%;上年同期业绩:净利润5781.47万元,基本每股收益0.0463元;</t>
         </is>
       </c>
       <c r="G183" s="33">
@@ -5868,7 +5868,7 @@
     <row r="184" ht="14" customHeight="1">
       <c r="B184" s="34" t="inlineStr">
         <is>
-          <t>000789.SZ</t>
+          <t>603032.SH</t>
         </is>
       </c>
       <c r="C184" s="29">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="F184" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润120万元至170万元;下降幅度为99.55%至99.36%,基本每股收益0.0015元至0.0021元;上年同期业绩:净利润26685.52万元,基本每股收益0.3347元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润700万元至900万元;下降幅度为94.96%至93.53%;上年同期业绩:净利润13900.39万元,基本每股收益0.61元;</t>
         </is>
       </c>
       <c r="G184" s="33">
@@ -5896,7 +5896,7 @@
     <row r="185" ht="14" customHeight="1">
       <c r="B185" s="34" t="inlineStr">
         <is>
-          <t>002717.SZ</t>
+          <t>002373.SZ</t>
         </is>
       </c>
       <c r="C185" s="29">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="F185" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-25000万元至-20000万元,基本每股收益-0.15元至-0.12元;上年同期业绩:净利润-10835.54万元,基本每股收益-0.06元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润1000万元至1500万元;下降幅度为96.49%至94.74%,基本每股收益为0.01元左右;上年同期业绩:净利润28509.04万元,基本每股收益0.18元;</t>
         </is>
       </c>
       <c r="G185" s="33">
@@ -5924,7 +5924,7 @@
     <row r="186" ht="14" customHeight="1">
       <c r="B186" s="34" t="inlineStr">
         <is>
-          <t>002527.SZ</t>
+          <t>002232.SZ</t>
         </is>
       </c>
       <c r="C186" s="29">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="F186" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-2269.80万元至-1222.20万元;下降幅度为118.29%至109.85%,基本每股收益-0.0343元至-0.0185元;上年同期业绩:净利润12408.26万元,基本每股收益0.1879元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润43万元至64万元;下降幅度为99.03%至98.56%,基本每股收益0.0011元至0.0016元;上年同期业绩:净利润4454.83万元,基本每股收益0.1090元;</t>
         </is>
       </c>
       <c r="G186" s="33">
@@ -5952,7 +5952,7 @@
     <row r="187" ht="14" customHeight="1">
       <c r="B187" s="34" t="inlineStr">
         <is>
-          <t>600083.SH</t>
+          <t>000789.SZ</t>
         </is>
       </c>
       <c r="C187" s="29">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="F187" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-3000万元至-2000万元;上年同期业绩:净利润-1155.76万元,基本每股收益-0.0503元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润120万元至170万元;下降幅度为99.55%至99.36%,基本每股收益0.0015元至0.0021元;上年同期业绩:净利润26685.52万元,基本每股收益0.3347元;</t>
         </is>
       </c>
       <c r="G187" s="33">
@@ -5980,7 +5980,7 @@
     <row r="188" ht="14" customHeight="1">
       <c r="B188" s="34" t="inlineStr">
         <is>
-          <t>002502.SZ</t>
+          <t>002717.SZ</t>
         </is>
       </c>
       <c r="C188" s="29">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="F188" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-1030万元至-690万元,基本每股收益-0.0120元至-0.0080元;上年同期业绩:净利润5151.76万元,基本每股收益0.0600元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-25000万元至-20000万元,基本每股收益-0.15元至-0.12元;上年同期业绩:净利润-10835.54万元,基本每股收益-0.06元;</t>
         </is>
       </c>
       <c r="G188" s="33">
@@ -6008,7 +6008,7 @@
     <row r="189" ht="14" customHeight="1">
       <c r="B189" s="34" t="inlineStr">
         <is>
-          <t>002491.SZ</t>
+          <t>002527.SZ</t>
         </is>
       </c>
       <c r="C189" s="29">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="F189" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-4500万元至-3500万元,基本每股收益-0.0366元至-0.0285元;上年同期业绩:净利润23235.40万元,基本每股收益0.1889元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-2269.80万元至-1222.20万元;下降幅度为118.29%至109.85%,基本每股收益-0.0343元至-0.0185元;上年同期业绩:净利润12408.26万元,基本每股收益0.1879元;</t>
         </is>
       </c>
       <c r="G189" s="33">
@@ -6036,7 +6036,7 @@
     <row r="190" ht="14" customHeight="1">
       <c r="B190" s="34" t="inlineStr">
         <is>
-          <t>003040.SZ</t>
+          <t>600083.SH</t>
         </is>
       </c>
       <c r="C190" s="29">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="F190" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-1700万元至-1200万元;下降幅度为126.35%至118.60%,基本每股收益-0.04元至-0.03元;上年同期业绩:净利润6451.45万元,基本每股收益0.14元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-3000万元至-2000万元;上年同期业绩:净利润-1155.76万元,基本每股收益-0.0503元;</t>
         </is>
       </c>
       <c r="G190" s="33">
@@ -6064,7 +6064,7 @@
     <row r="191" ht="14" customHeight="1">
       <c r="B191" s="34" t="inlineStr">
         <is>
-          <t>600782.SH</t>
+          <t>002502.SZ</t>
         </is>
       </c>
       <c r="C191" s="29">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="F191" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-8900万元至-6200万元;上年同期业绩:净利润29513.84万元,基本每股收益0.09元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-1030万元至-690万元,基本每股收益-0.0120元至-0.0080元;上年同期业绩:净利润5151.76万元,基本每股收益0.0600元;</t>
         </is>
       </c>
       <c r="G191" s="33">
@@ -6092,7 +6092,7 @@
     <row r="192" ht="14" customHeight="1">
       <c r="B192" s="34" t="inlineStr">
         <is>
-          <t>002240.SZ</t>
+          <t>002491.SZ</t>
         </is>
       </c>
       <c r="C192" s="29">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="F192" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-19000.00万元至-13000.00万元;下降幅度为131.07%至121.26%,基本每股收益-0.21元至-0.14元;上年同期业绩:净利润61143.09万元,基本每股收益0.67元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-4500万元至-3500万元,基本每股收益-0.0366元至-0.0285元;上年同期业绩:净利润23235.40万元,基本每股收益0.1889元;</t>
         </is>
       </c>
       <c r="G192" s="33">
@@ -6120,7 +6120,7 @@
     <row r="193" ht="14" customHeight="1">
       <c r="B193" s="34" t="inlineStr">
         <is>
-          <t>001269.SZ</t>
+          <t>003040.SZ</t>
         </is>
       </c>
       <c r="C193" s="29">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="F193" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-13300万元至-12000万元,基本每股收益-0.69元至-0.62元;上年同期业绩:净利润40783.42万元,基本每股收益2.12元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-1700万元至-1200万元;下降幅度为126.35%至118.60%,基本每股收益-0.04元至-0.03元;上年同期业绩:净利润6451.45万元,基本每股收益0.14元;</t>
         </is>
       </c>
       <c r="G193" s="33">
@@ -6148,7 +6148,7 @@
     <row r="194" ht="14" customHeight="1">
       <c r="B194" s="34" t="inlineStr">
         <is>
-          <t>002855.SZ</t>
+          <t>600782.SH</t>
         </is>
       </c>
       <c r="C194" s="29">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="F194" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-12800万元至-9000万元,基本每股收益-0.519元至-0.365元;上年同期业绩:净利润-4688.86万元,基本每股收益-0.19元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-8900万元至-6200万元;上年同期业绩:净利润29513.84万元,基本每股收益0.09元;</t>
         </is>
       </c>
       <c r="G194" s="33">
@@ -6176,7 +6176,7 @@
     <row r="195" ht="14" customHeight="1">
       <c r="B195" s="34" t="inlineStr">
         <is>
-          <t>002485.SZ</t>
+          <t>002240.SZ</t>
         </is>
       </c>
       <c r="C195" s="29">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="F195" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-2300万元至-1200万元,基本每股收益-0.0423元至-0.0221元;上年同期业绩:净利润4982.59万元,基本每股收益0.0916元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-19000.00万元至-13000.00万元;下降幅度为131.07%至121.26%,基本每股收益-0.21元至-0.14元;上年同期业绩:净利润61143.09万元,基本每股收益0.67元;</t>
         </is>
       </c>
       <c r="G195" s="33">
@@ -6204,7 +6204,7 @@
     <row r="196" ht="14" customHeight="1">
       <c r="B196" s="34" t="inlineStr">
         <is>
-          <t>001270.SZ</t>
+          <t>001269.SZ</t>
         </is>
       </c>
       <c r="C196" s="29">
@@ -6221,7 +6221,7 @@
       </c>
       <c r="F196" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-2800万元至-1960万元,基本每股收益-0.1372元至-0.0960元;上年同期业绩:净利润6461.95万元,基本每股收益0.3175元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-13300万元至-12000万元,基本每股收益-0.69元至-0.62元;上年同期业绩:净利润40783.42万元,基本每股收益2.12元;</t>
         </is>
       </c>
       <c r="G196" s="33">
@@ -6232,7 +6232,7 @@
     <row r="197" ht="14" customHeight="1">
       <c r="B197" s="34" t="inlineStr">
         <is>
-          <t>002829.SZ</t>
+          <t>002855.SZ</t>
         </is>
       </c>
       <c r="C197" s="29">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="F197" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-2000万元至-1000万元;下降幅度为151.79%至125.90%,基本每股收益-0.10元至-0.05元;上年同期业绩:净利润3861.39万元,基本每股收益0.24元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-12800万元至-9000万元,基本每股收益-0.519元至-0.365元;上年同期业绩:净利润-4688.86万元,基本每股收益-0.19元;</t>
         </is>
       </c>
       <c r="G197" s="33">
@@ -6260,7 +6260,7 @@
     <row r="198" ht="14" customHeight="1">
       <c r="B198" s="34" t="inlineStr">
         <is>
-          <t>002354.SZ</t>
+          <t>002485.SZ</t>
         </is>
       </c>
       <c r="C198" s="29">
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F198" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-700万元至-350万元;下降幅度为155.97%至127.99%,基本每股收益-0.0042元至-0.0021元;上年同期业绩:净利润1250.62万元,基本每股收益0.0076元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-2300万元至-1200万元,基本每股收益-0.0423元至-0.0221元;上年同期业绩:净利润4982.59万元,基本每股收益0.0916元;</t>
         </is>
       </c>
       <c r="G198" s="33">
@@ -6288,7 +6288,7 @@
     <row r="199" ht="14" customHeight="1">
       <c r="B199" s="34" t="inlineStr">
         <is>
-          <t>600867.SH</t>
+          <t>001270.SZ</t>
         </is>
       </c>
       <c r="C199" s="29">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="F199" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-22390.56万元左右;上年同期业绩:净利润48480.02万元,基本每股收益0.24元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-2800万元至-1960万元,基本每股收益-0.1372元至-0.0960元;上年同期业绩:净利润6461.95万元,基本每股收益0.3175元;</t>
         </is>
       </c>
       <c r="G199" s="33">
@@ -6316,7 +6316,7 @@
     <row r="200" ht="14" customHeight="1">
       <c r="B200" s="34" t="inlineStr">
         <is>
-          <t>000572.SZ</t>
+          <t>002829.SZ</t>
         </is>
       </c>
       <c r="C200" s="29">
@@ -6333,7 +6333,7 @@
       </c>
       <c r="F200" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-18000万元至-14000万元,基本每股收益-0.1094元至-0.0851元;上年同期业绩:净利润-6364万元,基本每股收益-0.0387元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-2000万元至-1000万元;下降幅度为151.79%至125.90%,基本每股收益-0.10元至-0.05元;上年同期业绩:净利润3861.39万元,基本每股收益0.24元;</t>
         </is>
       </c>
       <c r="G200" s="33">
@@ -6344,7 +6344,7 @@
     <row r="201" ht="14" customHeight="1">
       <c r="B201" s="34" t="inlineStr">
         <is>
-          <t>002231.SZ</t>
+          <t>002354.SZ</t>
         </is>
       </c>
       <c r="C201" s="29">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="F201" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-800万元至-450万元,基本每股收益-0.0231元至-0.0130元;上年同期业绩:净利润1186.89万元,基本每股收益0.0342元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-700万元至-350万元;下降幅度为155.97%至127.99%,基本每股收益-0.0042元至-0.0021元;上年同期业绩:净利润1250.62万元,基本每股收益0.0076元;</t>
         </is>
       </c>
       <c r="G201" s="33">
@@ -6372,7 +6372,7 @@
     <row r="202" ht="14" customHeight="1">
       <c r="B202" s="34" t="inlineStr">
         <is>
-          <t>603985.SH</t>
+          <t>600867.SH</t>
         </is>
       </c>
       <c r="C202" s="29">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="F202" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-3600.00万元至-2650.00万元;上年同期业绩:净利润5530.89万元,基本每股收益0.1255元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-22390.56万元左右;上年同期业绩:净利润48480.02万元,基本每股收益0.24元;</t>
         </is>
       </c>
       <c r="G202" s="33">
@@ -6400,7 +6400,7 @@
     <row r="203" ht="14" customHeight="1">
       <c r="B203" s="34" t="inlineStr">
         <is>
-          <t>600126.SH</t>
+          <t>000572.SZ</t>
         </is>
       </c>
       <c r="C203" s="29">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="F203" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-3500.00万元左右;下降幅度为163.36%左右;上年同期业绩:净利润5524.27万元,基本每股收益0.02元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-18000万元至-14000万元,基本每股收益-0.1094元至-0.0851元;上年同期业绩:净利润-6364万元,基本每股收益-0.0387元;</t>
         </is>
       </c>
       <c r="G203" s="33">
@@ -6428,7 +6428,7 @@
     <row r="204" ht="14" customHeight="1">
       <c r="B204" s="34" t="inlineStr">
         <is>
-          <t>600156.SH</t>
+          <t>002231.SZ</t>
         </is>
       </c>
       <c r="C204" s="29">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="F204" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-2750万元至-2300万元;上年同期业绩:净利润-953.26万元,基本每股收益-0.0237元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-800万元至-450万元,基本每股收益-0.0231元至-0.0130元;上年同期业绩:净利润1186.89万元,基本每股收益0.0342元;</t>
         </is>
       </c>
       <c r="G204" s="33">
@@ -6456,7 +6456,7 @@
     <row r="205" ht="14" customHeight="1">
       <c r="B205" s="34" t="inlineStr">
         <is>
-          <t>002346.SZ</t>
+          <t>603985.SH</t>
         </is>
       </c>
       <c r="C205" s="29">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="F205" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-18000万元至-12000万元,基本每股收益-0.41元至-0.27元;上年同期业绩:净利润22349.73万元,基本每股收益0.51元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-3600.00万元至-2650.00万元;上年同期业绩:净利润5530.89万元,基本每股收益0.1255元;</t>
         </is>
       </c>
       <c r="G205" s="33">
@@ -6484,7 +6484,7 @@
     <row r="206" ht="14" customHeight="1">
       <c r="B206" s="34" t="inlineStr">
         <is>
-          <t>002037.SZ</t>
+          <t>600126.SH</t>
         </is>
       </c>
       <c r="C206" s="29">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="F206" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-5600万元至-4600万元,基本每股收益-0.12元至-0.1元;上年同期业绩:净利润7317万元,基本每股收益0.15元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-3500.00万元左右;下降幅度为163.36%左右;上年同期业绩:净利润5524.27万元,基本每股收益0.02元;</t>
         </is>
       </c>
       <c r="G206" s="33">
@@ -6512,7 +6512,7 @@
     <row r="207" ht="14" customHeight="1">
       <c r="B207" s="34" t="inlineStr">
         <is>
-          <t>002747.SZ</t>
+          <t>600156.SH</t>
         </is>
       </c>
       <c r="C207" s="29">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="F207" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-8500万元至-6500万元;下降幅度为187.27%至166.73%,基本每股收益-0.10元至-0.07元;上年同期业绩:净利润9740.28万元,基本每股收益0.11元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-2750万元至-2300万元;上年同期业绩:净利润-953.26万元,基本每股收益-0.0237元;</t>
         </is>
       </c>
       <c r="G207" s="33">
@@ -6540,7 +6540,7 @@
     <row r="208" ht="14" customHeight="1">
       <c r="B208" s="34" t="inlineStr">
         <is>
-          <t>600084.SH</t>
+          <t>002346.SZ</t>
         </is>
       </c>
       <c r="C208" s="29">
@@ -6557,7 +6557,7 @@
       </c>
       <c r="F208" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-550万元至-450万元;上年同期业绩:净利润621.40万元,基本每股收益0.0055元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-18000万元至-12000万元,基本每股收益-0.41元至-0.27元;上年同期业绩:净利润22349.73万元,基本每股收益0.51元;</t>
         </is>
       </c>
       <c r="G208" s="33">
@@ -6568,7 +6568,7 @@
     <row r="209" ht="14" customHeight="1">
       <c r="B209" s="34" t="inlineStr">
         <is>
-          <t>002575.SZ</t>
+          <t>002037.SZ</t>
         </is>
       </c>
       <c r="C209" s="29">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="F209" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-800.00万元至-550.00万元,基本每股收益-0.0136元至-0.0093元;上年同期业绩:净利润744.95万元,基本每股收益0.0120元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-5600万元至-4600万元,基本每股收益-0.12元至-0.1元;上年同期业绩:净利润7317万元,基本每股收益0.15元;</t>
         </is>
       </c>
       <c r="G209" s="33">
@@ -6596,7 +6596,7 @@
     <row r="210" ht="14" customHeight="1">
       <c r="B210" s="34" t="inlineStr">
         <is>
-          <t>002030.SZ</t>
+          <t>002747.SZ</t>
         </is>
       </c>
       <c r="C210" s="29">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="F210" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-43000.00万元至-35000.00万元,基本每股收益-0.31元至-0.25元;上年同期业绩:净利润40275.54万元,基本每股收益0.29元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-8500万元至-6500万元;下降幅度为187.27%至166.73%,基本每股收益-0.10元至-0.07元;上年同期业绩:净利润9740.28万元,基本每股收益0.11元;</t>
         </is>
       </c>
       <c r="G210" s="33">
@@ -6624,7 +6624,7 @@
     <row r="211" ht="14" customHeight="1">
       <c r="B211" s="34" t="inlineStr">
         <is>
-          <t>600696.SH</t>
+          <t>600084.SH</t>
         </is>
       </c>
       <c r="C211" s="29">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="F211" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-8250.00万元至-5500.00万元;上年同期业绩:净利润5351.26万元,基本每股收益0.16元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-550万元至-450万元;上年同期业绩:净利润621.40万元,基本每股收益0.0055元;</t>
         </is>
       </c>
       <c r="G211" s="33">
@@ -6652,7 +6652,7 @@
     <row r="212" ht="14" customHeight="1">
       <c r="B212" s="34" t="inlineStr">
         <is>
-          <t>603421.SH</t>
+          <t>000803.SZ</t>
         </is>
       </c>
       <c r="C212" s="29">
@@ -6669,7 +6669,7 @@
       </c>
       <c r="F212" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-5200万元至-4350万元;上年同期业绩:净利润3588.04万元,基本每股收益0.06元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-3700万元至-3500万元;下降幅度为191.18%至186.25%,基本每股收益为-0.07元左右;上年同期业绩:净利润4058.07万元,基本每股收益0.09元;</t>
         </is>
       </c>
       <c r="G212" s="33">
@@ -6680,7 +6680,7 @@
     <row r="213" ht="14" customHeight="1">
       <c r="B213" s="34" t="inlineStr">
         <is>
-          <t>002289.SZ</t>
+          <t>002575.SZ</t>
         </is>
       </c>
       <c r="C213" s="29">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="F213" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-800.00万元至-740.00万元;下降幅度为278.76%至265.35%,基本每股收益-0.0285元至-0.0264元;上年同期业绩:净利润447.53万元,基本每股收益0.0160元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-800.00万元至-550.00万元,基本每股收益-0.0136元至-0.0093元;上年同期业绩:净利润744.95万元,基本每股收益0.0120元;</t>
         </is>
       </c>
       <c r="G213" s="33">
@@ -6708,7 +6708,7 @@
     <row r="214" ht="14" customHeight="1">
       <c r="B214" s="34" t="inlineStr">
         <is>
-          <t>600110.SH</t>
+          <t>002030.SZ</t>
         </is>
       </c>
       <c r="C214" s="29">
@@ -6725,7 +6725,7 @@
       </c>
       <c r="F214" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-15000万元左右;上年同期业绩:净利润8573.21万元,基本每股收益0.0491元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-43000.00万元至-35000.00万元,基本每股收益-0.31元至-0.25元;上年同期业绩:净利润40275.54万元,基本每股收益0.29元;</t>
         </is>
       </c>
       <c r="G214" s="33">
@@ -6736,7 +6736,7 @@
     <row r="215" ht="14" customHeight="1">
       <c r="B215" s="34" t="inlineStr">
         <is>
-          <t>002951.SZ</t>
+          <t>600696.SH</t>
         </is>
       </c>
       <c r="C215" s="29">
@@ -6753,7 +6753,7 @@
       </c>
       <c r="F215" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-4700.00万元至-3700.00万元,基本每股收益-0.11元至-0.09元;上年同期业绩:净利润-1119.14万元,基本每股收益-0.0276元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-8250.00万元至-5500.00万元;上年同期业绩:净利润5351.26万元,基本每股收益0.16元;</t>
         </is>
       </c>
       <c r="G215" s="33">
@@ -6764,7 +6764,7 @@
     <row r="216" ht="14" customHeight="1">
       <c r="B216" s="34" t="inlineStr">
         <is>
-          <t>603127.SH</t>
+          <t>603421.SH</t>
         </is>
       </c>
       <c r="C216" s="29">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="F216" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-18435.63万元至-13626.33万元;上年同期业绩:净利润9062.72万元,基本每股收益0.17元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-5200万元至-4350万元;上年同期业绩:净利润3588.04万元,基本每股收益0.06元;</t>
         </is>
       </c>
       <c r="G216" s="33">
@@ -6792,7 +6792,7 @@
     <row r="217" ht="14" customHeight="1">
       <c r="B217" s="34" t="inlineStr">
         <is>
-          <t>603959.SH</t>
+          <t>002289.SZ</t>
         </is>
       </c>
       <c r="C217" s="29">
@@ -6809,7 +6809,7 @@
       </c>
       <c r="F217" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-14200.00万元至-10200.00万元;上年同期业绩:净利润6677.65万元,基本每股收益0.14元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-800.00万元至-740.00万元;下降幅度为278.76%至265.35%,基本每股收益-0.0285元至-0.0264元;上年同期业绩:净利润447.53万元,基本每股收益0.0160元;</t>
         </is>
       </c>
       <c r="G217" s="33">
@@ -6820,7 +6820,7 @@
     <row r="218" ht="14" customHeight="1">
       <c r="B218" s="34" t="inlineStr">
         <is>
-          <t>002640.SZ</t>
+          <t>600110.SH</t>
         </is>
       </c>
       <c r="C218" s="29">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="F218" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-1500万元至-1000万元,基本每股收益-0.0096元至-0.0064元;上年同期业绩:净利润618.69万元,基本每股收益0.0040元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-15000万元左右;上年同期业绩:净利润8573.21万元,基本每股收益0.0491元;</t>
         </is>
       </c>
       <c r="G218" s="33">
@@ -6848,7 +6848,7 @@
     <row r="219" ht="14" customHeight="1">
       <c r="B219" s="34" t="inlineStr">
         <is>
-          <t>603988.SH</t>
+          <t>002951.SZ</t>
         </is>
       </c>
       <c r="C219" s="29">
@@ -6865,7 +6865,7 @@
       </c>
       <c r="F219" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-2160万元左右;下降幅度为310%左右;上年同期业绩:净利润1030万元,基本每股收益0.04元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-4700.00万元至-3700.00万元,基本每股收益-0.11元至-0.09元;上年同期业绩:净利润-1119.14万元,基本每股收益-0.0276元;</t>
         </is>
       </c>
       <c r="G219" s="33">
@@ -6876,7 +6876,7 @@
     <row r="220" ht="14" customHeight="1">
       <c r="B220" s="34" t="inlineStr">
         <is>
-          <t>600119.SH</t>
+          <t>603127.SH</t>
         </is>
       </c>
       <c r="C220" s="29">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="F220" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-1791.00万元至-1194.00万元;上年同期业绩:净利润-327.66万元,基本每股收益-0.009元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-18435.63万元至-13626.33万元;上年同期业绩:净利润9062.72万元,基本每股收益0.17元;</t>
         </is>
       </c>
       <c r="G220" s="33">
@@ -6904,7 +6904,7 @@
     <row r="221" ht="14" customHeight="1">
       <c r="B221" s="34" t="inlineStr">
         <is>
-          <t>000952.SZ</t>
+          <t>603959.SH</t>
         </is>
       </c>
       <c r="C221" s="29">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F221" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-13400万元至-10600万元;下降幅度为419.29%至310.78%,基本每股收益-0.3787元至-0.2996元;上年同期业绩:净利润-2580.45万元,基本每股收益-0.0729元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-14200.00万元至-10200.00万元;上年同期业绩:净利润6677.65万元,基本每股收益0.14元;</t>
         </is>
       </c>
       <c r="G221" s="33">
@@ -6932,7 +6932,7 @@
     <row r="222" ht="14" customHeight="1">
       <c r="B222" s="34" t="inlineStr">
         <is>
-          <t>600804.SH</t>
+          <t>002640.SZ</t>
         </is>
       </c>
       <c r="C222" s="29">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="F222" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-27099万元左右;上年同期业绩:净利润9464.78万元,基本每股收益0.06元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-1500万元至-1000万元,基本每股收益-0.0096元至-0.0064元;上年同期业绩:净利润618.69万元,基本每股收益0.0040元;</t>
         </is>
       </c>
       <c r="G222" s="33">
@@ -6960,7 +6960,7 @@
     <row r="223" ht="14" customHeight="1">
       <c r="B223" s="34" t="inlineStr">
         <is>
-          <t>002678.SZ</t>
+          <t>603988.SH</t>
         </is>
       </c>
       <c r="C223" s="29">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="F223" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-8600万元至-6200万元,基本每股收益-0.07元至-0.05元;上年同期业绩:净利润2526.89万元,基本每股收益0.02元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-2160万元左右;下降幅度为310%左右;上年同期业绩:净利润1030万元,基本每股收益0.04元;</t>
         </is>
       </c>
       <c r="G223" s="33">
@@ -6988,7 +6988,7 @@
     <row r="224" ht="14" customHeight="1">
       <c r="B224" s="34" t="inlineStr">
         <is>
-          <t>600892.SH</t>
+          <t>600119.SH</t>
         </is>
       </c>
       <c r="C224" s="29">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="F224" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-1700万元至-1200万元;上年同期业绩:净利润452.20万元,基本每股收益0.01元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-1791.00万元至-1194.00万元;上年同期业绩:净利润-327.66万元,基本每股收益-0.009元;</t>
         </is>
       </c>
       <c r="G224" s="33">
@@ -7016,7 +7016,7 @@
     <row r="225" ht="14" customHeight="1">
       <c r="B225" s="34" t="inlineStr">
         <is>
-          <t>002383.SZ</t>
+          <t>000952.SZ</t>
         </is>
       </c>
       <c r="C225" s="29">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="F225" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-6000万元至-4000万元;下降幅度为520.71%至380.47%,基本每股收益-0.0810元至-0.0540元;上年同期业绩:净利润1426.17万元,基本每股收益0.0193元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-13400万元至-10600万元;下降幅度为419.29%至310.78%,基本每股收益-0.3787元至-0.2996元;上年同期业绩:净利润-2580.45万元,基本每股收益-0.0729元;</t>
         </is>
       </c>
       <c r="G225" s="33">
@@ -7044,7 +7044,7 @@
     <row r="226" ht="14" customHeight="1">
       <c r="B226" s="34" t="inlineStr">
         <is>
-          <t>601011.SH</t>
+          <t>000040.SZ</t>
         </is>
       </c>
       <c r="C226" s="29">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="F226" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-22000万元至-18200万元;上年同期业绩:净利润5593.82万元,基本每股收益0.029元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-9500万元至-4750万元;下降幅度为475.01%至287.51%,基本每股收益-0.0639元至-0.0319元;上年同期业绩:净利润2533.26万元,基本每股收益0.0170元;</t>
         </is>
       </c>
       <c r="G226" s="33">
@@ -7072,7 +7072,7 @@
     <row r="227" ht="14" customHeight="1">
       <c r="B227" s="34" t="inlineStr">
         <is>
-          <t>000590.SZ</t>
+          <t>600804.SH</t>
         </is>
       </c>
       <c r="C227" s="29">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="F227" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-2700万元至-2100万元,基本每股收益-0.1127元至-0.0877 元;上年同期业绩:净利润638.25万元,基本每股收益0.0267元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-27099万元左右;上年同期业绩:净利润9464.78万元,基本每股收益0.06元;</t>
         </is>
       </c>
       <c r="G227" s="33">
@@ -7100,7 +7100,7 @@
     <row r="228" ht="14" customHeight="1">
       <c r="B228" s="34" t="inlineStr">
         <is>
-          <t>600225.SH</t>
+          <t>002678.SZ</t>
         </is>
       </c>
       <c r="C228" s="29">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="F228" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-12656万元至-9261万元;上年同期业绩:净利润2490.09万元,基本每股收益0.01元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-8600万元至-6200万元,基本每股收益-0.07元至-0.05元;上年同期业绩:净利润2526.89万元,基本每股收益0.02元;</t>
         </is>
       </c>
       <c r="G228" s="33">
@@ -7128,7 +7128,7 @@
     <row r="229" ht="14" customHeight="1">
       <c r="B229" s="34" t="inlineStr">
         <is>
-          <t>000514.SZ</t>
+          <t>600892.SH</t>
         </is>
       </c>
       <c r="C229" s="29">
@@ -7145,7 +7145,7 @@
       </c>
       <c r="F229" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-3900万元至-2000万元;下降幅度为752%至337%,基本每股收益-0.0462元至-0.0237元;上年同期业绩:净利润-458万元,基本每股收益-0.0054元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-1700万元至-1200万元;上年同期业绩:净利润452.20万元,基本每股收益0.01元;</t>
         </is>
       </c>
       <c r="G229" s="33">
@@ -7156,7 +7156,7 @@
     <row r="230" ht="14" customHeight="1">
       <c r="B230" s="34" t="inlineStr">
         <is>
-          <t>002288.SZ</t>
+          <t>002383.SZ</t>
         </is>
       </c>
       <c r="C230" s="29">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="F230" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-5000万元至-3500万元;下降幅度为641.85%至479.30%,基本每股收益-0.054元至-0.038元;上年同期业绩:净利润922.76万元,基本每股收益0.0099元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-6000万元至-4000万元;下降幅度为520.71%至380.47%,基本每股收益-0.0810元至-0.0540元;上年同期业绩:净利润1426.17万元,基本每股收益0.0193元;</t>
         </is>
       </c>
       <c r="G230" s="33">
@@ -7184,7 +7184,7 @@
     <row r="231" ht="14" customHeight="1">
       <c r="B231" s="34" t="inlineStr">
         <is>
-          <t>603958.SH</t>
+          <t>601011.SH</t>
         </is>
       </c>
       <c r="C231" s="29">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="F231" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-1500万元至-750万元;上年同期业绩:净利润186.32万元,基本每股收益0.01元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-22000万元至-18200万元;上年同期业绩:净利润5593.82万元,基本每股收益0.029元;</t>
         </is>
       </c>
       <c r="G231" s="33">
@@ -7212,7 +7212,7 @@
     <row r="232" ht="14" customHeight="1">
       <c r="B232" s="34" t="inlineStr">
         <is>
-          <t>002549.SZ</t>
+          <t>000590.SZ</t>
         </is>
       </c>
       <c r="C232" s="29">
@@ -7229,7 +7229,7 @@
       </c>
       <c r="F232" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-6600.00万元至-4500.00万元,基本每股收益-0.0949元至-0.0647元;上年同期业绩:净利润892.45万元,基本每股收益0.0143元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-2700万元至-2100万元,基本每股收益-0.1127元至-0.0877 元;上年同期业绩:净利润638.25万元,基本每股收益0.0267元;</t>
         </is>
       </c>
       <c r="G232" s="33">
@@ -7240,7 +7240,7 @@
     <row r="233" ht="14" customHeight="1">
       <c r="B233" s="34" t="inlineStr">
         <is>
-          <t>003005.SZ</t>
+          <t>600225.SH</t>
         </is>
       </c>
       <c r="C233" s="29">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="F233" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-1700万元至-1200万元,基本每股收益-0.1146元至-0.0809元;上年同期业绩:净利润216.18万元,基本每股收益0.0146元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-12656万元至-9261万元;上年同期业绩:净利润2490.09万元,基本每股收益0.01元;</t>
         </is>
       </c>
       <c r="G233" s="33">
@@ -7268,7 +7268,7 @@
     <row r="234" ht="14" customHeight="1">
       <c r="B234" s="34" t="inlineStr">
         <is>
-          <t>002902.SZ</t>
+          <t>000514.SZ</t>
         </is>
       </c>
       <c r="C234" s="29">
@@ -7285,7 +7285,7 @@
       </c>
       <c r="F234" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-8500万元至-6500万元,基本每股收益-0.3798元至-0.2905元;上年同期业绩:净利润922.86万元,基本每股收益0.0436元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-3900万元至-2000万元;下降幅度为752%至337%,基本每股收益-0.0462元至-0.0237元;上年同期业绩:净利润-458万元,基本每股收益-0.0054元;</t>
         </is>
       </c>
       <c r="G234" s="33">
@@ -7296,7 +7296,7 @@
     <row r="235" ht="14" customHeight="1">
       <c r="B235" s="34" t="inlineStr">
         <is>
-          <t>002921.SZ</t>
+          <t>002288.SZ</t>
         </is>
       </c>
       <c r="C235" s="29">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="F235" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-1950万元至-1600万元;下降幅度为1016.33%至815.96%,基本每股收益-0.1568元至-0.1286元;上年同期业绩:净利润-174.68万元,基本每股收益-0.0137元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-5000万元至-3500万元;下降幅度为641.85%至479.30%,基本每股收益-0.054元至-0.038元;上年同期业绩:净利润922.76万元,基本每股收益0.0099元;</t>
         </is>
       </c>
       <c r="G235" s="33">
@@ -7324,7 +7324,7 @@
     <row r="236" ht="14" customHeight="1">
       <c r="B236" s="34" t="inlineStr">
         <is>
-          <t>000561.SZ</t>
+          <t>603958.SH</t>
         </is>
       </c>
       <c r="C236" s="29">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="F236" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-5200万元至-3700万元;下降幅度为1300.01%至953.85%,基本每股收益-0.0861元至-0.0612元;上年同期业绩:净利润433.33万元,基本每股收益0.0062元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-1500万元至-750万元;上年同期业绩:净利润186.32万元,基本每股收益0.01元;</t>
         </is>
       </c>
       <c r="G236" s="33">
@@ -7352,7 +7352,7 @@
     <row r="237" ht="14" customHeight="1">
       <c r="B237" s="34" t="inlineStr">
         <is>
-          <t>000042.SZ</t>
+          <t>002549.SZ</t>
         </is>
       </c>
       <c r="C237" s="29">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="F237" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-33000万元左右;下降幅度为1,575.15%左右,基本每股收益为-0.4964元左右;上年同期业绩:净利润-1969.97万元,基本每股收益-0.0296元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-6600.00万元至-4500.00万元,基本每股收益-0.0949元至-0.0647元;上年同期业绩:净利润892.45万元,基本每股收益0.0143元;</t>
         </is>
       </c>
       <c r="G237" s="33">
@@ -7380,7 +7380,7 @@
     <row r="238" ht="14" customHeight="1">
       <c r="B238" s="34" t="inlineStr">
         <is>
-          <t>000566.SZ</t>
+          <t>003005.SZ</t>
         </is>
       </c>
       <c r="C238" s="29">
@@ -7397,7 +7397,7 @@
       </c>
       <c r="F238" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-17000万元至-13000万元,基本每股收益-0.131元至-0.1002元;上年同期业绩:净利润954.61万元,基本每股收益0.0074元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-1700万元至-1200万元,基本每股收益-0.1146元至-0.0809元;上年同期业绩:净利润216.18万元,基本每股收益0.0146元;</t>
         </is>
       </c>
       <c r="G238" s="33">
@@ -7408,7 +7408,7 @@
     <row r="239" ht="14" customHeight="1">
       <c r="B239" s="34" t="inlineStr">
         <is>
-          <t>002514.SZ</t>
+          <t>002902.SZ</t>
         </is>
       </c>
       <c r="C239" s="29">
@@ -7425,7 +7425,7 @@
       </c>
       <c r="F239" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-14500万元至-7500万元,基本每股收益-0.20元至-0.10元;上年同期业绩:净利润524.24万元,基本每股收益0.0073元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-8500万元至-6500万元,基本每股收益-0.3798元至-0.2905元;上年同期业绩:净利润922.86万元,基本每股收益0.0436元;</t>
         </is>
       </c>
       <c r="G239" s="33">
@@ -7436,7 +7436,7 @@
     <row r="240" ht="14" customHeight="1">
       <c r="B240" s="34" t="inlineStr">
         <is>
-          <t>002319.SZ</t>
+          <t>002921.SZ</t>
         </is>
       </c>
       <c r="C240" s="29">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="F240" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-1800.00万元至-1200万元,基本每股收益-0.090元至-0.06元;上年同期业绩:净利润66.49万元,基本每股收益0.003元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-1950万元至-1600万元;下降幅度为1016.33%至815.96%,基本每股收益-0.1568元至-0.1286元;上年同期业绩:净利润-174.68万元,基本每股收益-0.0137元;</t>
         </is>
       </c>
       <c r="G240" s="33">
@@ -7464,7 +7464,7 @@
     <row r="241" ht="14" customHeight="1">
       <c r="B241" s="34" t="inlineStr">
         <is>
-          <t>000978.SZ</t>
+          <t>000561.SZ</t>
         </is>
       </c>
       <c r="C241" s="29">
@@ -7481,7 +7481,7 @@
       </c>
       <c r="F241" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-2000万元左右,基本每股收益为-0.042元左右;上年同期业绩:净利润75.51万元,基本每股收益0.002元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-5200万元至-3700万元;下降幅度为1300.01%至953.85%,基本每股收益-0.0861元至-0.0612元;上年同期业绩:净利润433.33万元,基本每股收益0.0062元;</t>
         </is>
       </c>
       <c r="G241" s="33">
@@ -7492,7 +7492,7 @@
     <row r="242" ht="14" customHeight="1">
       <c r="B242" s="34" t="inlineStr">
         <is>
-          <t>002044.SZ</t>
+          <t>000042.SZ</t>
         </is>
       </c>
       <c r="C242" s="29">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="F242" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-25700万元至-17700万元,基本每股收益-0.07元至-0.05元;上年同期业绩:净利润522.64万元,基本每股收益0.0013元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-33000万元左右;下降幅度为1,575.15%左右,基本每股收益为-0.4964元左右;上年同期业绩:净利润-1969.97万元,基本每股收益-0.0296元;</t>
         </is>
       </c>
       <c r="G242" s="33">
@@ -7520,7 +7520,7 @@
     <row r="243" ht="14" customHeight="1">
       <c r="B243" s="34" t="inlineStr">
         <is>
-          <t>000717.SZ</t>
+          <t>000566.SZ</t>
         </is>
       </c>
       <c r="C243" s="29">
@@ -7537,7 +7537,7 @@
       </c>
       <c r="F243" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-48000万元至-39000万元;下降幅度为15387%至12520%,基本每股收益-0.1980元至-0.1609元;上年同期业绩:净利润314万元,基本每股收益0.0013元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-17000万元至-13000万元,基本每股收益-0.131元至-0.1002元;上年同期业绩:净利润954.61万元,基本每股收益0.0074元;</t>
         </is>
       </c>
       <c r="G243" s="33">
@@ -7545,11 +7545,146 @@
         <v/>
       </c>
     </row>
-    <row r="244" ht="14" customHeight="1"/>
-    <row r="245" ht="14" customHeight="1"/>
-    <row r="246" ht="14" customHeight="1"/>
-    <row r="247" ht="14" customHeight="1"/>
-    <row r="248" ht="14" customHeight="1"/>
+    <row r="244" ht="14" customHeight="1">
+      <c r="B244" s="34" t="inlineStr">
+        <is>
+          <t>002514.SZ</t>
+        </is>
+      </c>
+      <c r="C244" s="29">
+        <f>[1]!s_info_name(B244)</f>
+        <v/>
+      </c>
+      <c r="D244" s="39">
+        <f>[1]!s_info_industry_sw_2021(B244,"",1)</f>
+        <v/>
+      </c>
+      <c r="E244" s="31">
+        <f>IF([1]!s_info_industry_sw_2021(B244,"",2)="消费电子",分工!$E$4,VLOOKUP(D244,分工!$B$2:'分工'!$C$32,2,0))</f>
+        <v/>
+      </c>
+      <c r="F244" s="35" t="inlineStr">
+        <is>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-14500万元至-7500万元,基本每股收益-0.20元至-0.10元;上年同期业绩:净利润524.24万元,基本每股收益0.0073元;</t>
+        </is>
+      </c>
+      <c r="G244" s="33">
+        <f>IFERROR(VLOOKUP(C244,重点公司!$C$2:$E$800,2,FALSE),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" ht="14" customHeight="1">
+      <c r="B245" s="34" t="inlineStr">
+        <is>
+          <t>002319.SZ</t>
+        </is>
+      </c>
+      <c r="C245" s="29">
+        <f>[1]!s_info_name(B245)</f>
+        <v/>
+      </c>
+      <c r="D245" s="39">
+        <f>[1]!s_info_industry_sw_2021(B245,"",1)</f>
+        <v/>
+      </c>
+      <c r="E245" s="31">
+        <f>IF([1]!s_info_industry_sw_2021(B245,"",2)="消费电子",分工!$E$4,VLOOKUP(D245,分工!$B$2:'分工'!$C$32,2,0))</f>
+        <v/>
+      </c>
+      <c r="F245" s="35" t="inlineStr">
+        <is>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-1800.00万元至-1200万元,基本每股收益-0.090元至-0.06元;上年同期业绩:净利润66.49万元,基本每股收益0.003元;</t>
+        </is>
+      </c>
+      <c r="G245" s="33">
+        <f>IFERROR(VLOOKUP(C245,重点公司!$C$2:$E$800,2,FALSE),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" ht="14" customHeight="1">
+      <c r="B246" s="34" t="inlineStr">
+        <is>
+          <t>000978.SZ</t>
+        </is>
+      </c>
+      <c r="C246" s="29">
+        <f>[1]!s_info_name(B246)</f>
+        <v/>
+      </c>
+      <c r="D246" s="39">
+        <f>[1]!s_info_industry_sw_2021(B246,"",1)</f>
+        <v/>
+      </c>
+      <c r="E246" s="31">
+        <f>IF([1]!s_info_industry_sw_2021(B246,"",2)="消费电子",分工!$E$4,VLOOKUP(D246,分工!$B$2:'分工'!$C$32,2,0))</f>
+        <v/>
+      </c>
+      <c r="F246" s="35" t="inlineStr">
+        <is>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-2000万元左右,基本每股收益为-0.042元左右;上年同期业绩:净利润75.51万元,基本每股收益0.002元;</t>
+        </is>
+      </c>
+      <c r="G246" s="33">
+        <f>IFERROR(VLOOKUP(C246,重点公司!$C$2:$E$800,2,FALSE),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" ht="14" customHeight="1">
+      <c r="B247" s="34" t="inlineStr">
+        <is>
+          <t>002044.SZ</t>
+        </is>
+      </c>
+      <c r="C247" s="29">
+        <f>[1]!s_info_name(B247)</f>
+        <v/>
+      </c>
+      <c r="D247" s="39">
+        <f>[1]!s_info_industry_sw_2021(B247,"",1)</f>
+        <v/>
+      </c>
+      <c r="E247" s="31">
+        <f>IF([1]!s_info_industry_sw_2021(B247,"",2)="消费电子",分工!$E$4,VLOOKUP(D247,分工!$B$2:'分工'!$C$32,2,0))</f>
+        <v/>
+      </c>
+      <c r="F247" s="35" t="inlineStr">
+        <is>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-25700万元至-17700万元,基本每股收益-0.07元至-0.05元;上年同期业绩:净利润522.64万元,基本每股收益0.0013元;</t>
+        </is>
+      </c>
+      <c r="G247" s="33">
+        <f>IFERROR(VLOOKUP(C247,重点公司!$C$2:$E$800,2,FALSE),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248" ht="14" customHeight="1">
+      <c r="B248" s="34" t="inlineStr">
+        <is>
+          <t>000717.SZ</t>
+        </is>
+      </c>
+      <c r="C248" s="29">
+        <f>[1]!s_info_name(B248)</f>
+        <v/>
+      </c>
+      <c r="D248" s="39">
+        <f>[1]!s_info_industry_sw_2021(B248,"",1)</f>
+        <v/>
+      </c>
+      <c r="E248" s="31">
+        <f>IF([1]!s_info_industry_sw_2021(B248,"",2)="消费电子",分工!$E$4,VLOOKUP(D248,分工!$B$2:'分工'!$C$32,2,0))</f>
+        <v/>
+      </c>
+      <c r="F248" s="35" t="inlineStr">
+        <is>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-48000万元至-39000万元;下降幅度为15387%至12520%,基本每股收益-0.1980元至-0.1609元;上年同期业绩:净利润314万元,基本每股收益0.0013元;</t>
+        </is>
+      </c>
+      <c r="G248" s="33">
+        <f>IFERROR(VLOOKUP(C248,重点公司!$C$2:$E$800,2,FALSE),0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="249" ht="14" customHeight="1"/>
     <row r="250" ht="14" customHeight="1"/>
     <row r="251" ht="14" customHeight="1"/>
